--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.53752494842405</v>
+        <v>2.537524948423936</v>
       </c>
       <c r="C2">
-        <v>0.6223910597594227</v>
+        <v>0.6223910597591953</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.442786156900254</v>
+        <v>1.442786156900226</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.525740370962907</v>
+        <v>2.525740370962865</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7081490982703542</v>
+        <v>0.70814909827034</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176987985522828</v>
+        <v>2.176987985522715</v>
       </c>
       <c r="C3">
-        <v>0.5351393746879012</v>
+        <v>0.535139374687418</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.21934229057932</v>
+        <v>2.219342290579362</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.960424915584099</v>
+        <v>1.960424915583985</v>
       </c>
       <c r="C4">
-        <v>0.4827491364822549</v>
+        <v>0.4827491364824539</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.100065206642242</v>
+        <v>1.100065206642256</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5467435756016954</v>
+        <v>0.5467435756017167</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.873181555962958</v>
+        <v>1.873181555962987</v>
       </c>
       <c r="C5">
-        <v>0.4616417643272541</v>
+        <v>0.4616417643270836</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.048925818169664</v>
+        <v>1.048925818169735</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5223415693382236</v>
+        <v>0.5223415693382378</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.858750313272253</v>
+        <v>1.858750313272225</v>
       </c>
       <c r="C6">
-        <v>0.458150038529368</v>
+        <v>0.4581500385295669</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.040483485047417</v>
+        <v>1.04048348504746</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.954590554052231</v>
+        <v>1.954590554052274</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5183049990410211</v>
+        <v>0.5183049990410424</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.959244488512269</v>
+        <v>1.959244488512496</v>
       </c>
       <c r="C7">
-        <v>0.4824635628772569</v>
+        <v>0.4824635628774843</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.099372110235905</v>
+        <v>1.099372110235919</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>2.03757919542781</v>
+        <v>2.037579195427796</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5464134183994247</v>
+        <v>0.5464134183994034</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.412084587124355</v>
+        <v>2.412084587124411</v>
       </c>
       <c r="C8">
-        <v>0.5920255449533727</v>
+        <v>0.5920255449526906</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.418402267080893</v>
+        <v>2.418402267080864</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6730639930335229</v>
+        <v>0.67306399303353</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.348913443032302</v>
+        <v>3.348913443032359</v>
       </c>
       <c r="C9">
-        <v>0.8192177018609357</v>
+        <v>0.8192177018603672</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.9381116332668</v>
+        <v>1.938111633266857</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9351845903935612</v>
+        <v>0.9351845903935896</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>4.084954742458876</v>
       </c>
       <c r="C10">
-        <v>0.9987097594882641</v>
+        <v>0.9987097594882073</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.401890888918302</v>
+        <v>2.401890888918359</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
         <v>3.905900802269798</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.435371963941009</v>
+        <v>4.435371963940895</v>
       </c>
       <c r="C11">
-        <v>1.084579369299803</v>
+        <v>1.084579369299746</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.627846348218867</v>
+        <v>2.62784634821891</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.231319588013747</v>
+        <v>4.231319588013804</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.239646942502233</v>
+        <v>1.239646942502262</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.570867443429165</v>
+        <v>4.570867443429108</v>
       </c>
       <c r="C12">
         <v>1.117864382077073</v>
@@ -804,10 +804,10 @@
         <v>2.716152231727889</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>4.358319425627911</v>
+        <v>4.358319425627883</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.277667620756105</v>
+        <v>1.27766762075612</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.541551193502926</v>
+        <v>4.541551193502983</v>
       </c>
       <c r="C13">
-        <v>1.110658687434295</v>
+        <v>1.110658687434153</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.697000970949631</v>
+        <v>2.697000970949645</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.330786778139867</v>
+        <v>4.330786778139981</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.446459465498265</v>
+        <v>4.446459465498322</v>
       </c>
       <c r="C14">
-        <v>1.087301284313639</v>
+        <v>1.087301284313781</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.635052450699973</v>
+        <v>2.635052450700002</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.241687657799247</v>
+        <v>4.24168765779919</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.242757676509996</v>
+        <v>1.242757676509981</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.388596517665974</v>
+        <v>4.388596517665917</v>
       </c>
       <c r="C15">
-        <v>1.073099702617014</v>
+        <v>1.073099702617156</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.597484328998092</v>
+        <v>2.597484328998064</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.187627076897769</v>
+        <v>4.187627076897712</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.226524428921053</v>
+        <v>1.226524428921024</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.062412690065173</v>
+        <v>4.06241269006523</v>
       </c>
       <c r="C16">
-        <v>0.9931957856284441</v>
+        <v>0.9931957856287283</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.387472388650593</v>
+        <v>2.387472388650579</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.885118911593565</v>
+        <v>3.885118911593509</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.135055187682653</v>
+        <v>1.13505518768261</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866660794994232</v>
+        <v>3.866660794994175</v>
       </c>
       <c r="C17">
-        <v>0.9453608302917758</v>
+        <v>0.9453608302919463</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.262845784555765</v>
+        <v>2.262845784555836</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.705440953936403</v>
+        <v>3.705440953936488</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.755496830665493</v>
+        <v>3.75549683066555</v>
       </c>
       <c r="C18">
-        <v>0.9182328038455125</v>
+        <v>0.9182328038454273</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.192531135429817</v>
+        <v>2.192531135429789</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.604043314232484</v>
+        <v>3.604043314232399</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.049047209378017</v>
+        <v>1.049047209378045</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.718088766035521</v>
+        <v>3.718088766035578</v>
       </c>
       <c r="C19">
-        <v>0.9091095966447824</v>
+        <v>0.9091095966450098</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.168943122177865</v>
+        <v>2.168943122177907</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>3.57002720301557</v>
+        <v>3.570027203015599</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.038567768838988</v>
+        <v>1.038567768838973</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.88734755110346</v>
+        <v>3.887347551103687</v>
       </c>
       <c r="C20">
-        <v>0.9504120103659375</v>
+        <v>0.9504120103661933</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.275967215815129</v>
+        <v>2.275967215815086</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.724361659029171</v>
+        <v>3.724361659029142</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.085989659327723</v>
+        <v>1.08598965932768</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.474309102564291</v>
+        <v>4.474309102564177</v>
       </c>
       <c r="C21">
-        <v>1.094139585737224</v>
+        <v>1.094139585737111</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.653168356674726</v>
+        <v>2.65316835667474</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.267749334478879</v>
+        <v>4.26774933447885</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.250571599834842</v>
+        <v>1.250571599834828</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.874607699210856</v>
+        <v>4.874607699210969</v>
       </c>
       <c r="C22">
-        <v>1.192657672611148</v>
+        <v>1.19265767261092</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.916069561611565</v>
+        <v>2.916069561611579</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.645330525954222</v>
+        <v>4.645330525954193</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.362946119080334</v>
+        <v>1.362946119080348</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.659212495008717</v>
+        <v>4.65921249500866</v>
       </c>
       <c r="C23">
-        <v>1.139592632647862</v>
+        <v>1.139592632647748</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.774017011572937</v>
+        <v>2.774017011572894</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.302464568753521</v>
+        <v>1.302464568753464</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.877990821791911</v>
+        <v>3.877990821791741</v>
       </c>
       <c r="C24">
-        <v>0.9481272219058212</v>
+        <v>0.9481272219055938</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.270030901103553</v>
+        <v>2.270030901103482</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.083367740208814</v>
+        <v>1.083367740208772</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.08859065769451</v>
+        <v>3.088590657694454</v>
       </c>
       <c r="C25">
-        <v>0.7559721665935797</v>
+        <v>0.7559721665938071</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.777429481620942</v>
+        <v>1.777429481620914</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>3.005874203913862</v>
+        <v>3.005874203913876</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8623201372033407</v>
+        <v>0.8623201372033549</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.537524948423936</v>
+        <v>2.53752494842405</v>
       </c>
       <c r="C2">
-        <v>0.6223910597591953</v>
+        <v>0.6223910597594227</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.442786156900226</v>
+        <v>1.442786156900254</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.525740370962865</v>
+        <v>2.525740370962907</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.70814909827034</v>
+        <v>0.7081490982703542</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176987985522715</v>
+        <v>2.176987985522828</v>
       </c>
       <c r="C3">
-        <v>0.535139374687418</v>
+        <v>0.5351393746879012</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.219342290579362</v>
+        <v>2.21934229057932</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.960424915583985</v>
+        <v>1.960424915584099</v>
       </c>
       <c r="C4">
-        <v>0.4827491364824539</v>
+        <v>0.4827491364822549</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.100065206642256</v>
+        <v>1.100065206642242</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5467435756017167</v>
+        <v>0.5467435756016954</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.873181555962987</v>
+        <v>1.873181555962958</v>
       </c>
       <c r="C5">
-        <v>0.4616417643270836</v>
+        <v>0.4616417643272541</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.048925818169735</v>
+        <v>1.048925818169664</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5223415693382378</v>
+        <v>0.5223415693382236</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.858750313272225</v>
+        <v>1.858750313272253</v>
       </c>
       <c r="C6">
-        <v>0.4581500385295669</v>
+        <v>0.458150038529368</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.04048348504746</v>
+        <v>1.040483485047417</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>1.954590554052274</v>
+        <v>1.954590554052231</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5183049990410424</v>
+        <v>0.5183049990410211</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.959244488512496</v>
+        <v>1.959244488512269</v>
       </c>
       <c r="C7">
-        <v>0.4824635628774843</v>
+        <v>0.4824635628772569</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.099372110235919</v>
+        <v>1.099372110235905</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.037579195427796</v>
+        <v>2.03757919542781</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5464134183994034</v>
+        <v>0.5464134183994247</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.412084587124411</v>
+        <v>2.412084587124355</v>
       </c>
       <c r="C8">
-        <v>0.5920255449526906</v>
+        <v>0.5920255449533727</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.418402267080864</v>
+        <v>2.418402267080893</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.67306399303353</v>
+        <v>0.6730639930335229</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.348913443032359</v>
+        <v>3.348913443032302</v>
       </c>
       <c r="C9">
-        <v>0.8192177018603672</v>
+        <v>0.8192177018609357</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.938111633266857</v>
+        <v>1.9381116332668</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9351845903935896</v>
+        <v>0.9351845903935612</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>4.084954742458876</v>
       </c>
       <c r="C10">
-        <v>0.9987097594882073</v>
+        <v>0.9987097594882641</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.401890888918359</v>
+        <v>2.401890888918302</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
         <v>3.905900802269798</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.435371963940895</v>
+        <v>4.435371963941009</v>
       </c>
       <c r="C11">
-        <v>1.084579369299746</v>
+        <v>1.084579369299803</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.62784634821891</v>
+        <v>2.627846348218867</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.231319588013804</v>
+        <v>4.231319588013747</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.239646942502262</v>
+        <v>1.239646942502233</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.570867443429108</v>
+        <v>4.570867443429165</v>
       </c>
       <c r="C12">
         <v>1.117864382077073</v>
@@ -804,10 +804,10 @@
         <v>2.716152231727889</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.358319425627883</v>
+        <v>4.358319425627911</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.27766762075612</v>
+        <v>1.277667620756105</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.541551193502983</v>
+        <v>4.541551193502926</v>
       </c>
       <c r="C13">
-        <v>1.110658687434153</v>
+        <v>1.110658687434295</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.697000970949645</v>
+        <v>2.697000970949631</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.330786778139981</v>
+        <v>4.330786778139867</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.446459465498322</v>
+        <v>4.446459465498265</v>
       </c>
       <c r="C14">
-        <v>1.087301284313781</v>
+        <v>1.087301284313639</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.635052450700002</v>
+        <v>2.635052450699973</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.24168765779919</v>
+        <v>4.241687657799247</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.242757676509981</v>
+        <v>1.242757676509996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.388596517665917</v>
+        <v>4.388596517665974</v>
       </c>
       <c r="C15">
-        <v>1.073099702617156</v>
+        <v>1.073099702617014</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.597484328998064</v>
+        <v>2.597484328998092</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.187627076897712</v>
+        <v>4.187627076897769</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.226524428921024</v>
+        <v>1.226524428921053</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.06241269006523</v>
+        <v>4.062412690065173</v>
       </c>
       <c r="C16">
-        <v>0.9931957856287283</v>
+        <v>0.9931957856284441</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.387472388650579</v>
+        <v>2.387472388650593</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.885118911593509</v>
+        <v>3.885118911593565</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.13505518768261</v>
+        <v>1.135055187682653</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866660794994175</v>
+        <v>3.866660794994232</v>
       </c>
       <c r="C17">
-        <v>0.9453608302919463</v>
+        <v>0.9453608302917758</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.262845784555836</v>
+        <v>2.262845784555765</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.705440953936488</v>
+        <v>3.705440953936403</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.75549683066555</v>
+        <v>3.755496830665493</v>
       </c>
       <c r="C18">
-        <v>0.9182328038454273</v>
+        <v>0.9182328038455125</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.192531135429789</v>
+        <v>2.192531135429817</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.604043314232399</v>
+        <v>3.604043314232484</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.049047209378045</v>
+        <v>1.049047209378017</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.718088766035578</v>
+        <v>3.718088766035521</v>
       </c>
       <c r="C19">
-        <v>0.9091095966450098</v>
+        <v>0.9091095966447824</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.168943122177907</v>
+        <v>2.168943122177865</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>3.570027203015599</v>
+        <v>3.57002720301557</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.038567768838973</v>
+        <v>1.038567768838988</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.887347551103687</v>
+        <v>3.88734755110346</v>
       </c>
       <c r="C20">
-        <v>0.9504120103661933</v>
+        <v>0.9504120103659375</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.275967215815086</v>
+        <v>2.275967215815129</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.724361659029142</v>
+        <v>3.724361659029171</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.08598965932768</v>
+        <v>1.085989659327723</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.474309102564177</v>
+        <v>4.474309102564291</v>
       </c>
       <c r="C21">
-        <v>1.094139585737111</v>
+        <v>1.094139585737224</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.65316835667474</v>
+        <v>2.653168356674726</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.26774933447885</v>
+        <v>4.267749334478879</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.250571599834828</v>
+        <v>1.250571599834842</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.874607699210969</v>
+        <v>4.874607699210856</v>
       </c>
       <c r="C22">
-        <v>1.19265767261092</v>
+        <v>1.192657672611148</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.916069561611579</v>
+        <v>2.916069561611565</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.645330525954193</v>
+        <v>4.645330525954222</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.362946119080348</v>
+        <v>1.362946119080334</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.65921249500866</v>
+        <v>4.659212495008717</v>
       </c>
       <c r="C23">
-        <v>1.139592632647748</v>
+        <v>1.139592632647862</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.774017011572894</v>
+        <v>2.774017011572937</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.302464568753464</v>
+        <v>1.302464568753521</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.877990821791741</v>
+        <v>3.877990821791911</v>
       </c>
       <c r="C24">
-        <v>0.9481272219055938</v>
+        <v>0.9481272219058212</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.270030901103482</v>
+        <v>2.270030901103553</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.083367740208772</v>
+        <v>1.083367740208814</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.088590657694454</v>
+        <v>3.08859065769451</v>
       </c>
       <c r="C25">
-        <v>0.7559721665938071</v>
+        <v>0.7559721665935797</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.777429481620914</v>
+        <v>1.777429481620942</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>3.005874203913876</v>
+        <v>3.005874203913862</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8623201372033549</v>
+        <v>0.8623201372033407</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.53752494842405</v>
+        <v>2.537212241652185</v>
       </c>
       <c r="C2">
-        <v>0.6223910597594227</v>
+        <v>0.6222390095659307</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.442786156900254</v>
+        <v>1.442686296604322</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.525740370962907</v>
+        <v>0.8185676170176492</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.696917925719021</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7081490982703542</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7080424580982481</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176987985522828</v>
+        <v>2.176791701676279</v>
       </c>
       <c r="C3">
-        <v>0.5351393746879012</v>
+        <v>0.5350376377356554</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.227765554966808</v>
+        <v>1.227704141186251</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.21934229057932</v>
+        <v>0.7136720829735594</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.497375125702632</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6073123382358432</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6072439212375542</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.960424915584099</v>
+        <v>1.960287524864782</v>
       </c>
       <c r="C4">
-        <v>0.4827491364822549</v>
+        <v>0.4826743639798963</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.100065206642242</v>
+        <v>1.100022574970524</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.038557466135686</v>
+        <v>0.6516890327411318</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.379745297703408</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5467435756016954</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5466948512285867</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.873181555962958</v>
+        <v>1.873065511876575</v>
       </c>
       <c r="C5">
-        <v>0.4616417643272541</v>
+        <v>0.4615771622992497</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.048925818169664</v>
+        <v>1.048889885174901</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>1.966471655639722</v>
+        <v>0.6269516850312442</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.332868024216452</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5223415693382236</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5223000762535577</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.858750313272253</v>
+        <v>1.858637666993019</v>
       </c>
       <c r="C6">
-        <v>0.458150038529368</v>
+        <v>0.4580870803610253</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.040483485047417</v>
+        <v>1.040448613189312</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>1.954590554052231</v>
+        <v>0.6228731683825401</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.325143333953832</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5183049990410211</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5182646628587477</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.959244488512269</v>
+        <v>1.959107395804779</v>
       </c>
       <c r="C7">
-        <v>0.4824635628772569</v>
+        <v>0.4823889306441913</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.099372110235905</v>
+        <v>1.09932957247122</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.03757919542781</v>
+        <v>0.6513534146281899</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.379109023769843</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5464134183994247</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5463647945755454</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.412084587124355</v>
+        <v>2.411814973606397</v>
       </c>
       <c r="C8">
-        <v>0.5920255449533727</v>
+        <v>0.5918917697518111</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.367628357478765</v>
+        <v>1.367542928898303</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.418402267080893</v>
+        <v>0.7818402155709947</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.626990416859243</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6730639930335229</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.672971418575905</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.348913443032302</v>
+        <v>3.348255188526196</v>
       </c>
       <c r="C9">
-        <v>0.8192177018609357</v>
+        <v>0.8189272219676695</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.9381116332668</v>
+        <v>1.937888239649965</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.237242981966816</v>
+        <v>1.061591159277043</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.160936664347901</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9351845903935612</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9349670910247454</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.084954742458876</v>
+        <v>4.083879708119127</v>
       </c>
       <c r="C10">
-        <v>0.9987097594882641</v>
+        <v>0.9982618528005105</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.401890888918302</v>
+        <v>2.401502281889691</v>
       </c>
       <c r="F10">
         <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>3.905900802269798</v>
+        <v>1.289467504256322</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.597597671412501</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.141374356555218</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.141025429465316</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.435371963941009</v>
+        <v>4.434061766197658</v>
       </c>
       <c r="C11">
-        <v>1.084579369299803</v>
+        <v>1.084045007847863</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.627846348218867</v>
+        <v>2.62735757815922</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.231319588013747</v>
+        <v>1.40023220224117</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.810260434271612</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.239646942502233</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.239224431768776</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.570867443429165</v>
+        <v>4.569459611777802</v>
       </c>
       <c r="C12">
-        <v>1.117864382077073</v>
+        <v>1.117294474963757</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.716152231727889</v>
+        <v>2.715620496065284</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.358319425627911</v>
+        <v>1.44343888450905</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.89327790302687</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.277667620756105</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.277214644543719</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.541551193502926</v>
+        <v>4.540164810458691</v>
       </c>
       <c r="C13">
-        <v>1.110658687434295</v>
+        <v>1.110096573727731</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.697000970949631</v>
+        <v>2.696478742087095</v>
       </c>
       <c r="F13">
         <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.330786778139867</v>
+        <v>1.434072940223047</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.87527931055476</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.269440266399727</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.26899397921494</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.446459465498265</v>
+        <v>4.445141421404514</v>
       </c>
       <c r="C14">
-        <v>1.087301284313639</v>
+        <v>1.086764059415856</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.635052450699973</v>
+        <v>2.634560257131952</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.241687657799247</v>
+        <v>1.40375995351107</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.817037402199247</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.242757676509996</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.242332715758693</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.388596517665974</v>
+        <v>4.387319143821514</v>
       </c>
       <c r="C15">
-        <v>1.073099702617014</v>
+        <v>1.072577333506473</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.597484328998092</v>
+        <v>2.597009824377125</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.187627076897769</v>
+        <v>1.385364914096471</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.781702233788138</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.226524428921053</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.226112170733927</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.062412690065173</v>
+        <v>4.061351948123104</v>
       </c>
       <c r="C16">
-        <v>0.9931957856284441</v>
+        <v>0.9927531775829266</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.387472388650593</v>
+        <v>2.387089713717273</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.885118911593565</v>
+        <v>1.282391067658324</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.584019621368185</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.135055187682653</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.134710743467949</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.866660794994232</v>
+        <v>3.865720025326823</v>
       </c>
       <c r="C17">
-        <v>0.9453608302917758</v>
+        <v>0.9449629366842487</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.262845784555765</v>
+        <v>2.262512179741975</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.705440953936403</v>
+        <v>1.221194072328615</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.466641651977341</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.080192933856651</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.079886176789316</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.755496830665493</v>
+        <v>3.754620928953443</v>
       </c>
       <c r="C18">
-        <v>0.9182328038455125</v>
+        <v>0.9178592824106317</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.192531135429817</v>
+        <v>2.192223512580597</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.604043314232484</v>
+        <v>1.186646496194783</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.400415348725375</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.049047209378017</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.048760876623689</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.718088766035521</v>
+        <v>3.717234168859306</v>
       </c>
       <c r="C19">
-        <v>0.9091095966447824</v>
+        <v>0.9087441131593152</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.168943122177865</v>
+        <v>2.168643946593733</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>3.57002720301557</v>
+        <v>1.175054662626252</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.378200562090029</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.038567768838988</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.038288152083794</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.88734755110346</v>
+        <v>3.886394451029616</v>
       </c>
       <c r="C20">
-        <v>0.9504120103659375</v>
+        <v>0.9500095003826061</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.275967215815129</v>
+        <v>2.27562862811132</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.724361659029171</v>
+        <v>1.227639614846879</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.479000532210648</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.085989659327723</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.085679023868536</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.474309102564291</v>
+        <v>4.472971238138314</v>
       </c>
       <c r="C21">
-        <v>1.094139585737224</v>
+        <v>1.093595133060461</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.653168356674726</v>
+        <v>2.652667492121083</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.267749334478879</v>
+        <v>1.412627141147681</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.834072670831262</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.250571599834842</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.250140451523222</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.874607699210856</v>
+        <v>4.872966853968308</v>
       </c>
       <c r="C22">
-        <v>1.192657672611148</v>
+        <v>1.192003595834365</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.916069561611565</v>
+        <v>2.915432128830389</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>4.645330525954222</v>
+        <v>1.541043124301581</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.080933514751393</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.362946119080334</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.362420595617664</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.659212495008717</v>
+        <v>4.657738932086488</v>
       </c>
       <c r="C23">
-        <v>1.139592632647862</v>
+        <v>1.138998892735856</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.774017011572937</v>
+        <v>2.773455905575716</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>4.441470501499424</v>
+        <v>1.471721752433268</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.947638550361262</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.302464568753521</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.301991105773425</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.877990821791911</v>
+        <v>3.877043308939619</v>
       </c>
       <c r="C24">
-        <v>0.9481272219058212</v>
+        <v>0.9477268030957475</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.270030901103553</v>
+        <v>2.269694573007598</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>3.715801736873374</v>
+        <v>1.224723623386438</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.473409204703131</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.083367740208814</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.083058861997202</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.08859065769451</v>
+        <v>3.088055969179891</v>
       </c>
       <c r="C25">
-        <v>0.7559721665935797</v>
+        <v>0.7557299769060535</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.777429481620942</v>
+        <v>1.777251778660172</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>3.005874203913862</v>
+        <v>0.9826358690200436</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.009962647907756</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8623201372033407</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8621419915176176</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.537212241652185</v>
+        <v>2.99617642266719</v>
       </c>
       <c r="C2">
-        <v>0.6222390095659307</v>
+        <v>0.7550746611807426</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.442686296604322</v>
+        <v>0.2145840115297872</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>6.658223509347096</v>
       </c>
       <c r="G2">
-        <v>0.8185676170176492</v>
+        <v>0.0007935042001424983</v>
       </c>
       <c r="H2">
-        <v>1.696917925719021</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6676323942775468</v>
       </c>
       <c r="K2">
-        <v>0.7080424580982481</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.1843337916607659</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176791701676279</v>
+        <v>2.57112453391295</v>
       </c>
       <c r="C3">
-        <v>0.5350376377356554</v>
+        <v>0.6440064978946509</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.227704141186251</v>
+        <v>0.1833088268146597</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>5.881891607840174</v>
       </c>
       <c r="G3">
-        <v>0.7136720829735594</v>
+        <v>0.0008056979112507356</v>
       </c>
       <c r="H3">
-        <v>1.497375125702632</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5872225236229554</v>
       </c>
       <c r="K3">
-        <v>0.6072439212375542</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.1562928207502239</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.960287524864782</v>
+        <v>2.317688956563472</v>
       </c>
       <c r="C4">
-        <v>0.4826743639798963</v>
+        <v>0.5778671401291433</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.100022574970524</v>
+        <v>0.1647326911736187</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>5.418858043238004</v>
       </c>
       <c r="G4">
-        <v>0.6516890327411318</v>
+        <v>0.0008133140184031736</v>
       </c>
       <c r="H4">
-        <v>1.379745297703408</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.539220763088764</v>
       </c>
       <c r="K4">
-        <v>0.5466948512285867</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.1402215886951836</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.873065511876575</v>
+        <v>2.216027778906152</v>
       </c>
       <c r="C5">
-        <v>0.4615771622992497</v>
+        <v>0.5513501300160328</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.048889885174901</v>
+        <v>0.1572959309284343</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>5.233080446144811</v>
       </c>
       <c r="G5">
-        <v>0.6269516850312442</v>
+        <v>0.000816454455267198</v>
       </c>
       <c r="H5">
-        <v>1.332868024216452</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5199462400475738</v>
       </c>
       <c r="K5">
-        <v>0.5223000762535577</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.133925425651654</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.858637666993019</v>
+        <v>2.199237002381949</v>
       </c>
       <c r="C6">
-        <v>0.4580870803610253</v>
+        <v>0.5469710887366261</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.040448613189312</v>
+        <v>0.1560684424059033</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>5.202394138199281</v>
       </c>
       <c r="G6">
-        <v>0.6228731683825401</v>
+        <v>0.0008169782631467393</v>
       </c>
       <c r="H6">
-        <v>1.325143333953832</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5167614621453254</v>
       </c>
       <c r="K6">
-        <v>0.5182646628587477</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.1328942911724909</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.959107395804779</v>
+        <v>2.316311724025695</v>
       </c>
       <c r="C7">
-        <v>0.4823889306441913</v>
+        <v>0.5775078607829016</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.09932957247122</v>
+        <v>0.1646318875653137</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>5.416341429066478</v>
       </c>
       <c r="G7">
-        <v>0.6513534146281899</v>
+        <v>0.0008133562171229353</v>
       </c>
       <c r="H7">
-        <v>1.379109023769843</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5389597314512997</v>
       </c>
       <c r="K7">
-        <v>0.5463647945755454</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1401356952159887</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.411814973606397</v>
+        <v>2.847870800117335</v>
       </c>
       <c r="C8">
-        <v>0.5918917697518111</v>
+        <v>0.7162987352142522</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.367542928898303</v>
+        <v>0.2036545271220334</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>6.387382593249441</v>
       </c>
       <c r="G8">
-        <v>0.7818402155709947</v>
+        <v>0.0007976845735413995</v>
       </c>
       <c r="H8">
-        <v>1.626990416859243</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6395855195299305</v>
       </c>
       <c r="K8">
-        <v>0.672971418575905</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1744046802563517</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.348255188526196</v>
+        <v>3.965051754291665</v>
       </c>
       <c r="C9">
-        <v>0.8189272219676695</v>
+        <v>1.009138352536979</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.937888239649965</v>
+        <v>0.2864366382739334</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>8.426974401056327</v>
       </c>
       <c r="G9">
-        <v>1.061591159277043</v>
+        <v>0.0007677490869151584</v>
       </c>
       <c r="H9">
-        <v>2.160936664347901</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.8508349224137248</v>
       </c>
       <c r="K9">
-        <v>0.9349670910247454</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.2525851814440472</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.083879708119127</v>
+        <v>4.85649924327987</v>
       </c>
       <c r="C10">
-        <v>0.9982618528005105</v>
+        <v>1.244250259034402</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.401502281889691</v>
+        <v>0.3532156399441604</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>10.05343480980758</v>
       </c>
       <c r="G10">
-        <v>1.289467504256322</v>
+        <v>0.0007458604199310761</v>
       </c>
       <c r="H10">
-        <v>2.597597671412501</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.019636379672932</v>
       </c>
       <c r="K10">
-        <v>1.141025429465316</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.3199427289390613</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.434061766197658</v>
+        <v>5.28458272532896</v>
       </c>
       <c r="C11">
-        <v>1.084045007847863</v>
+        <v>1.357677580482175</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.62735757815922</v>
+        <v>0.3855002238814293</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>10.83410675709672</v>
       </c>
       <c r="G11">
-        <v>1.40023220224117</v>
+        <v>0.000735816960363026</v>
       </c>
       <c r="H11">
-        <v>2.810260434271612</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.100843306247384</v>
       </c>
       <c r="K11">
-        <v>1.239224431768776</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.3536871046511934</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.569459611777802</v>
+        <v>5.450700072714881</v>
       </c>
       <c r="C12">
-        <v>1.117294474963757</v>
+        <v>1.401790346567566</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.715620496065284</v>
+        <v>0.398064682809391</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>11.13696958447935</v>
       </c>
       <c r="G12">
-        <v>1.44343888450905</v>
+        <v>0.0007319898399752379</v>
       </c>
       <c r="H12">
-        <v>2.89327790302687</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.132385516825593</v>
       </c>
       <c r="K12">
-        <v>1.277214644543719</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.3670146950059667</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.540164810458691</v>
+        <v>5.414731188352675</v>
       </c>
       <c r="C13">
-        <v>1.110096573727731</v>
+        <v>1.392234026995595</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.696478742087095</v>
+        <v>0.3953424343307219</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>11.07139545399048</v>
       </c>
       <c r="G13">
-        <v>1.434072940223047</v>
+        <v>0.0007328153519288172</v>
       </c>
       <c r="H13">
-        <v>2.87527931055476</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.125554300168005</v>
       </c>
       <c r="K13">
-        <v>1.26899397921494</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.3641180127924315</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.445141421404514</v>
+        <v>5.298163878804587</v>
       </c>
       <c r="C14">
-        <v>1.086764059415856</v>
+        <v>1.361282002275971</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.634560257131952</v>
+        <v>0.3865266920735309</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>10.85886940257433</v>
       </c>
       <c r="G14">
-        <v>1.40375995351107</v>
+        <v>0.0007355026548325943</v>
       </c>
       <c r="H14">
-        <v>2.817037402199247</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.103421434238385</v>
       </c>
       <c r="K14">
-        <v>1.242332715758693</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.3547718833942213</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.387319143821514</v>
+        <v>5.22731119971246</v>
       </c>
       <c r="C15">
-        <v>1.072577333506473</v>
+        <v>1.342481824552465</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.597009824377125</v>
+        <v>0.3811731129903677</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>10.72967984072392</v>
       </c>
       <c r="G15">
-        <v>1.385364914096471</v>
+        <v>0.0007371452104784418</v>
       </c>
       <c r="H15">
-        <v>2.781702233788138</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.089972630701709</v>
       </c>
       <c r="K15">
-        <v>1.226112170733927</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.3491221348346336</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.061351948123104</v>
+        <v>4.829038710229952</v>
       </c>
       <c r="C16">
-        <v>0.9927531775829266</v>
+        <v>1.236986217377535</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.387089713717273</v>
+        <v>0.3511493553535274</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>10.00334756507758</v>
       </c>
       <c r="G16">
-        <v>1.282391067658324</v>
+        <v>0.0007465141236928853</v>
       </c>
       <c r="H16">
-        <v>2.584019621368185</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.014430753153675</v>
       </c>
       <c r="K16">
-        <v>1.134710743467949</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.3178081639082713</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.865720025326823</v>
+        <v>4.590984162181826</v>
       </c>
       <c r="C17">
-        <v>0.9449629366842487</v>
+        <v>1.174073597004679</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.262512179741975</v>
+        <v>0.333260928065279</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>9.569100515360248</v>
       </c>
       <c r="G17">
-        <v>1.221194072328615</v>
+        <v>0.0007522321568032694</v>
       </c>
       <c r="H17">
-        <v>2.466641651977341</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9693202648536499</v>
       </c>
       <c r="K17">
-        <v>1.079886176789316</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.2994588654634427</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.754620928953443</v>
+        <v>4.456130292763419</v>
       </c>
       <c r="C18">
-        <v>0.9178592824106317</v>
+        <v>1.138480873098956</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.192223512580597</v>
+        <v>0.3231468250545362</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>9.32307467718482</v>
       </c>
       <c r="G18">
-        <v>1.186646496194783</v>
+        <v>0.0007555137207180448</v>
       </c>
       <c r="H18">
-        <v>2.400415348725375</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.9437787225934926</v>
       </c>
       <c r="K18">
-        <v>1.048760876623689</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.2891895072468635</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.717234168859306</v>
+        <v>4.410805702516484</v>
       </c>
       <c r="C19">
-        <v>0.9087441131593152</v>
+        <v>1.126525461071765</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.168643946593733</v>
+        <v>0.3197506397912946</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>9.240379994181239</v>
       </c>
       <c r="G19">
-        <v>1.175054662626252</v>
+        <v>0.0007566238587378988</v>
       </c>
       <c r="H19">
-        <v>2.378200562090029</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9351961204068004</v>
       </c>
       <c r="K19">
-        <v>1.038288152083794</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.2857586122480065</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.886394451029616</v>
+        <v>4.61610633796397</v>
       </c>
       <c r="C20">
-        <v>0.9500095003826061</v>
+        <v>1.180707887679944</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.27562862811132</v>
+        <v>0.3351466603641384</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>9.614930600238154</v>
       </c>
       <c r="G20">
-        <v>1.227639614846879</v>
+        <v>0.0007516242931118602</v>
       </c>
       <c r="H20">
-        <v>2.479000532210648</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9740794369837431</v>
       </c>
       <c r="K20">
-        <v>1.085679023868536</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.3013820467034876</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.472971238138314</v>
+        <v>5.33228665979226</v>
       </c>
       <c r="C21">
-        <v>1.093595133060461</v>
+        <v>1.370339773418721</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.652667492121083</v>
+        <v>0.3891062997204173</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>10.92108449188498</v>
       </c>
       <c r="G21">
-        <v>1.412627141147681</v>
+        <v>0.0007347140813889978</v>
       </c>
       <c r="H21">
-        <v>2.834072670831262</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.109899512106409</v>
       </c>
       <c r="K21">
-        <v>1.250140451523222</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.3575012120548635</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.872966853968308</v>
+        <v>5.824228010296622</v>
       </c>
       <c r="C22">
-        <v>1.192003595834365</v>
+        <v>1.50118738726286</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.915432128830389</v>
+        <v>0.4263894645122548</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>11.8178075241089</v>
       </c>
       <c r="G22">
-        <v>1.541043124301581</v>
+        <v>0.0007235157156186786</v>
       </c>
       <c r="H22">
-        <v>3.080933514751393</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.203375781961597</v>
       </c>
       <c r="K22">
-        <v>1.362420595617664</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.3974479294713333</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.657738932086488</v>
+        <v>5.559182555586858</v>
       </c>
       <c r="C23">
-        <v>1.138998892735856</v>
+        <v>1.430628235447955</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.773455905575716</v>
+        <v>0.4062806734670303</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>11.33472851819027</v>
       </c>
       <c r="G23">
-        <v>1.471721752433268</v>
+        <v>0.0007295104210001666</v>
       </c>
       <c r="H23">
-        <v>2.947638550361262</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.152993556755035</v>
       </c>
       <c r="K23">
-        <v>1.301991105773425</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.3757873711487534</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.877043308939619</v>
+        <v>4.604742406893592</v>
       </c>
       <c r="C24">
-        <v>0.9477268030957475</v>
+        <v>1.1777067455223</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.269694573007598</v>
+        <v>0.3342935953772823</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>9.594199616202786</v>
       </c>
       <c r="G24">
-        <v>1.224723623386438</v>
+        <v>0.0007518991257945546</v>
       </c>
       <c r="H24">
-        <v>2.473409204703131</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9719266021734825</v>
       </c>
       <c r="K24">
-        <v>1.083058861997202</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.3005117120821836</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.088055969179891</v>
+        <v>3.652500744875908</v>
       </c>
       <c r="C25">
-        <v>0.7557299769060535</v>
+        <v>0.9270265515008873</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.777251778660172</v>
+        <v>0.2631729985664961</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>7.856503906476348</v>
       </c>
       <c r="G25">
-        <v>0.9826358690200436</v>
+        <v>0.000775797472347274</v>
       </c>
       <c r="H25">
-        <v>2.009962647907756</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7917227416097177</v>
       </c>
       <c r="K25">
-        <v>0.8621419915176176</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0.2299646901644898</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.99617642266719</v>
+        <v>1.364386650421324</v>
       </c>
       <c r="C2">
-        <v>0.7550746611807426</v>
+        <v>0.0779483408183026</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2145840115297872</v>
+        <v>0.09245392174090128</v>
       </c>
       <c r="F2">
-        <v>6.658223509347096</v>
+        <v>1.511651787370752</v>
       </c>
       <c r="G2">
-        <v>0.0007935042001424983</v>
+        <v>0.8771764528017343</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.628172781909683</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6676323942775468</v>
+        <v>0.05906796631584399</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.040635604026647</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.32469273270668</v>
       </c>
       <c r="M2">
-        <v>0.1843337916607659</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.18711084859919</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.57112453391295</v>
+        <v>1.196321329367379</v>
       </c>
       <c r="C3">
-        <v>0.6440064978946509</v>
+        <v>0.07477915758760645</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1833088268146597</v>
+        <v>0.08573989921807623</v>
       </c>
       <c r="F3">
-        <v>5.881891607840174</v>
+        <v>1.432492925143762</v>
       </c>
       <c r="G3">
-        <v>0.0008056979112507356</v>
+        <v>0.848835276547419</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6227445027331129</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5872225236229554</v>
+        <v>0.05971996994126272</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.903880048936287</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2891134103078912</v>
       </c>
       <c r="M3">
-        <v>0.1562928207502239</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.239032018088885</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.317688956563472</v>
+        <v>1.094155002337317</v>
       </c>
       <c r="C4">
-        <v>0.5778671401291433</v>
+        <v>0.07283416570266965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1647326911736187</v>
+        <v>0.08170084153286084</v>
       </c>
       <c r="F4">
-        <v>5.418858043238004</v>
+        <v>1.386158487717765</v>
       </c>
       <c r="G4">
-        <v>0.0008133140184031736</v>
+        <v>0.8330776682364842</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6203624025784222</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.539220763088764</v>
+        <v>0.06013427854670184</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8205567781656384</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2675271991226253</v>
       </c>
       <c r="M4">
-        <v>0.1402215886951836</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.272368590018026</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.216027778906152</v>
+        <v>1.052752843276494</v>
       </c>
       <c r="C5">
-        <v>0.5513501300160328</v>
+        <v>0.07204116764599888</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1572959309284343</v>
+        <v>0.08007478622106845</v>
       </c>
       <c r="F5">
-        <v>5.233080446144811</v>
+        <v>1.367816926825654</v>
       </c>
       <c r="G5">
-        <v>0.000816454455267198</v>
+        <v>0.8270478243505579</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.619620949253715</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5199462400475738</v>
+        <v>0.06030668668665662</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7867426665425796</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2587906075065405</v>
       </c>
       <c r="M5">
-        <v>0.133925425651654</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.286310568872373</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.199237002381949</v>
+        <v>1.04589127460676</v>
       </c>
       <c r="C6">
-        <v>0.5469710887366261</v>
+        <v>0.07190944946595579</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1560684424059033</v>
+        <v>0.07980595219763131</v>
       </c>
       <c r="F6">
-        <v>5.202394138199281</v>
+        <v>1.364803082718268</v>
       </c>
       <c r="G6">
-        <v>0.0008169782631467393</v>
+        <v>0.8260696025930798</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6195114017686763</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5167614621453254</v>
+        <v>0.06033553248948031</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7811357596957293</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2573433747447353</v>
       </c>
       <c r="M6">
-        <v>0.1328942911724909</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.28864692830582</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.316311724025695</v>
+        <v>1.093595735353745</v>
       </c>
       <c r="C7">
-        <v>0.5775078607829016</v>
+        <v>0.07282347345871187</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1646318875653137</v>
+        <v>0.08167883281117128</v>
       </c>
       <c r="F7">
-        <v>5.416341429066478</v>
+        <v>1.385908979372019</v>
       </c>
       <c r="G7">
-        <v>0.0008133562171229353</v>
+        <v>0.8329947904869073</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6203514873626972</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5389597314512997</v>
+        <v>0.06013658915474984</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.820100206585181</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2674091384226074</v>
       </c>
       <c r="M7">
-        <v>0.1401356952159887</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.272555182562126</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.847870800117335</v>
+        <v>1.306208113276341</v>
       </c>
       <c r="C8">
-        <v>0.7162987352142522</v>
+        <v>0.07685502924909571</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2036545271220334</v>
+        <v>0.09012095592379055</v>
       </c>
       <c r="F8">
-        <v>6.387382593249441</v>
+        <v>1.483867852728508</v>
       </c>
       <c r="G8">
-        <v>0.0007976845735413995</v>
+        <v>0.8670496425324501</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6260976583146203</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6395855195299305</v>
+        <v>0.05928991328029198</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.993335044603441</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3123677895804491</v>
       </c>
       <c r="M8">
-        <v>0.1744046802563517</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.204705187241263</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.965051754291665</v>
+        <v>1.732586027675438</v>
       </c>
       <c r="C9">
-        <v>1.009138352536979</v>
+        <v>0.08479890260021961</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2864366382739334</v>
+        <v>0.1073896577374391</v>
       </c>
       <c r="F9">
-        <v>8.426974401056327</v>
+        <v>1.695446515662539</v>
       </c>
       <c r="G9">
-        <v>0.0007677490869151584</v>
+        <v>0.9479299442642457</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6453846778859997</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8508349224137248</v>
+        <v>0.05773762879917399</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.339214937481358</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4028509974307894</v>
       </c>
       <c r="M9">
-        <v>0.2525851814440472</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.083651448806187</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.85649924327987</v>
+        <v>2.053568497118306</v>
       </c>
       <c r="C10">
-        <v>1.244250259034402</v>
+        <v>0.09070580179071897</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3532156399441604</v>
+        <v>0.1205903974697478</v>
       </c>
       <c r="F10">
-        <v>10.05343480980758</v>
+        <v>1.864973391244661</v>
       </c>
       <c r="G10">
-        <v>0.0007458604199310761</v>
+        <v>1.017522628654234</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.665151248418212</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.019636379672932</v>
+        <v>0.05665883713415454</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.598676051075216</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.471133588008513</v>
       </c>
       <c r="M10">
-        <v>0.3199427289390613</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.002680928641539</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.28458272532896</v>
+        <v>2.201743367545362</v>
       </c>
       <c r="C11">
-        <v>1.357677580482175</v>
+        <v>0.09342009279883001</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3855002238814293</v>
+        <v>0.1267259956269591</v>
       </c>
       <c r="F11">
-        <v>10.83410675709672</v>
+        <v>1.945683299752844</v>
       </c>
       <c r="G11">
-        <v>0.000735816960363026</v>
+        <v>1.051770844518074</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6755299630693656</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.100843306247384</v>
+        <v>0.05618047435360118</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.718255443555563</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5026828967239538</v>
       </c>
       <c r="M11">
-        <v>0.3536871046511934</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.967733385605051</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.450700072714881</v>
+        <v>2.258206166449781</v>
       </c>
       <c r="C12">
-        <v>1.401790346567566</v>
+        <v>0.09445292327404076</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.398064682809391</v>
+        <v>0.1290698149750646</v>
       </c>
       <c r="F12">
-        <v>11.13696958447935</v>
+        <v>1.976810236096739</v>
       </c>
       <c r="G12">
-        <v>0.0007319898399752379</v>
+        <v>1.065146726791014</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6796750970517138</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.132385516825593</v>
+        <v>0.05600102602671164</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.763794215430636</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.514708211217453</v>
       </c>
       <c r="M12">
-        <v>0.3670146950059667</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.954785531769879</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.414731188352675</v>
+        <v>2.246029525956487</v>
       </c>
       <c r="C13">
-        <v>1.392234026995595</v>
+        <v>0.0942302446591512</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3953424343307219</v>
+        <v>0.1285640968588169</v>
       </c>
       <c r="F13">
-        <v>11.07139545399048</v>
+        <v>1.970080620566833</v>
       </c>
       <c r="G13">
-        <v>0.0007328153519288172</v>
+        <v>1.062247319966545</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6787725478537112</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.125554300168005</v>
+        <v>0.05603959933725555</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.753974641771322</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5121147255312053</v>
       </c>
       <c r="M13">
-        <v>0.3641180127924315</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.957561114542564</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.298163878804587</v>
+        <v>2.206381285790087</v>
       </c>
       <c r="C14">
-        <v>1.361282002275971</v>
+        <v>0.0935049578868572</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3865266920735309</v>
+        <v>0.126918404386867</v>
       </c>
       <c r="F14">
-        <v>10.85886940257433</v>
+        <v>1.948232546127414</v>
       </c>
       <c r="G14">
-        <v>0.0007355026548325943</v>
+        <v>1.052862926078461</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6758665845414669</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.103421434238385</v>
+        <v>0.05616567751405022</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.721996597951403</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5036706084716656</v>
       </c>
       <c r="M14">
-        <v>0.3547718833942213</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.9666623366059639</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.22731119971246</v>
+        <v>2.182142759084002</v>
       </c>
       <c r="C15">
-        <v>1.342481824552465</v>
+        <v>0.09306138203631775</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3811731129903677</v>
+        <v>0.1259130776649648</v>
       </c>
       <c r="F15">
-        <v>10.72967984072392</v>
+        <v>1.934924870791491</v>
       </c>
       <c r="G15">
-        <v>0.0007371452104784418</v>
+        <v>1.047168762670282</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6741150721223477</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.089972630701709</v>
+        <v>0.05624312250068897</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.702443599731396</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.498508791539976</v>
       </c>
       <c r="M15">
-        <v>0.3491221348346336</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.9722748056300006</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.829038710229952</v>
+        <v>2.043931850887191</v>
       </c>
       <c r="C16">
-        <v>1.236986217377535</v>
+        <v>0.09052905347273565</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3511493553535274</v>
+        <v>0.1201921849050755</v>
       </c>
       <c r="F16">
-        <v>10.00334756507758</v>
+        <v>1.859775044087925</v>
       </c>
       <c r="G16">
-        <v>0.0007465141236928853</v>
+        <v>1.015339422144379</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6645021789247778</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.014430753153675</v>
+        <v>0.05669034145103602</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.590895263415064</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4690822583614818</v>
       </c>
       <c r="M16">
-        <v>0.3178081639082713</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.005004025893861</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.590984162181826</v>
+        <v>1.959725447434607</v>
       </c>
       <c r="C17">
-        <v>1.174073597004679</v>
+        <v>0.08898325280365782</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.333260928065279</v>
+        <v>0.1167171553608206</v>
       </c>
       <c r="F17">
-        <v>9.569100515360248</v>
+        <v>1.814625458060775</v>
       </c>
       <c r="G17">
-        <v>0.0007522321568032694</v>
+        <v>0.9965001390497576</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6589708224630044</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9693202648536499</v>
+        <v>0.05696780998317585</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.522884002693189</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4511604688552922</v>
       </c>
       <c r="M17">
-        <v>0.2994588654634427</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.025575613768552</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.456130292763419</v>
+        <v>1.911492606923247</v>
       </c>
       <c r="C18">
-        <v>1.138480873098956</v>
+        <v>0.08809664014770391</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3231468250545362</v>
+        <v>0.1147305902822033</v>
       </c>
       <c r="F18">
-        <v>9.32307467718482</v>
+        <v>1.788991586838335</v>
       </c>
       <c r="G18">
-        <v>0.0007555137207180448</v>
+        <v>0.9859058629573667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6559188635431781</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9437787225934926</v>
+        <v>0.05712857358596679</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.483909357877195</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.440897660419779</v>
       </c>
       <c r="M18">
-        <v>0.2891895072468635</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.037584446342031</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.410805702516484</v>
+        <v>1.895195004294152</v>
       </c>
       <c r="C19">
-        <v>1.126525461071765</v>
+        <v>0.08779684516689201</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3197506397912946</v>
+        <v>0.1140600175809716</v>
       </c>
       <c r="F19">
-        <v>9.240379994181239</v>
+        <v>1.780368546078307</v>
       </c>
       <c r="G19">
-        <v>0.0007566238587378988</v>
+        <v>0.9823593127247534</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6549073173098634</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9351961204068004</v>
+        <v>0.05718320897182494</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.470736894813939</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4374303953627106</v>
       </c>
       <c r="M19">
-        <v>0.2857586122480065</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.041680331358172</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.61610633796397</v>
+        <v>1.968668324172995</v>
       </c>
       <c r="C20">
-        <v>1.180707887679944</v>
+        <v>0.08914754067350117</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3351466603641384</v>
+        <v>0.1170858061540549</v>
       </c>
       <c r="F20">
-        <v>9.614930600238154</v>
+        <v>1.81939670807165</v>
       </c>
       <c r="G20">
-        <v>0.0007516242931118602</v>
+        <v>0.9984803700653231</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.659546130435487</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9740794369837431</v>
+        <v>0.05693815237526323</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.530108815446624</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4530635248747643</v>
       </c>
       <c r="M20">
-        <v>0.3013820467034876</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.02336735263404</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.33228665979226</v>
+        <v>2.218017026310974</v>
       </c>
       <c r="C21">
-        <v>1.370339773418721</v>
+        <v>0.09371784773324521</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3891062997204173</v>
+        <v>0.127401216841676</v>
       </c>
       <c r="F21">
-        <v>10.92108449188498</v>
+        <v>1.954634155862735</v>
       </c>
       <c r="G21">
-        <v>0.0007347140813889978</v>
+        <v>1.055608020966545</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6767141729238091</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.109899512106409</v>
+        <v>0.05612859992690211</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.731382075131393</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5061486572883638</v>
       </c>
       <c r="M21">
-        <v>0.3575012120548635</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.9639812007206174</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.824228010296622</v>
+        <v>2.383055586391379</v>
       </c>
       <c r="C22">
-        <v>1.50118738726286</v>
+        <v>0.09673445723709051</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4263894645122548</v>
+        <v>0.1342626973362506</v>
       </c>
       <c r="F22">
-        <v>11.8178075241089</v>
+        <v>2.046330960577677</v>
       </c>
       <c r="G22">
-        <v>0.0007235157156186786</v>
+        <v>1.095333570959454</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6891954661986404</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.203375781961597</v>
+        <v>0.05560936090490642</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.864439547286935</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5413033974145804</v>
       </c>
       <c r="M22">
-        <v>0.3974479294713333</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.9268438316443621</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.559182555586858</v>
+        <v>2.29476683165575</v>
       </c>
       <c r="C23">
-        <v>1.430628235447955</v>
+        <v>0.09512133900079789</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4062806734670303</v>
+        <v>0.1305890655864381</v>
       </c>
       <c r="F23">
-        <v>11.33472851819027</v>
+        <v>1.997070992030459</v>
       </c>
       <c r="G23">
-        <v>0.0007295104210001666</v>
+        <v>1.073900567512823</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6824131153588837</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.152993556755035</v>
+        <v>0.05588561629075883</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.793273817929645</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5224956269898087</v>
       </c>
       <c r="M23">
-        <v>0.3757873711487534</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.9465062844148804</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.604742406893592</v>
+        <v>1.96462469660031</v>
       </c>
       <c r="C24">
-        <v>1.1777067455223</v>
+        <v>0.08907325970130842</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3342935953772823</v>
+        <v>0.1169191041311706</v>
       </c>
       <c r="F24">
-        <v>9.594199616202786</v>
+        <v>1.817238622701481</v>
       </c>
       <c r="G24">
-        <v>0.0007518991257945546</v>
+        <v>0.9975843729862675</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6592856358824832</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9719266021734825</v>
+        <v>0.05695155670115604</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.526842087868289</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4522030271927662</v>
       </c>
       <c r="M24">
-        <v>0.3005117120821836</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.024365141853146</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.652500744875908</v>
+        <v>1.616034084195832</v>
       </c>
       <c r="C25">
-        <v>0.9270265515008873</v>
+        <v>0.0826411760924799</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2631729985664961</v>
+        <v>0.1026338352572971</v>
       </c>
       <c r="F25">
-        <v>7.856503906476348</v>
+        <v>1.635905171296997</v>
       </c>
       <c r="G25">
-        <v>0.000775797472347274</v>
+        <v>0.9243846956194517</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6392386512445682</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7917227416097177</v>
+        <v>0.0581464154660658</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.244828625423594</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3780858877865398</v>
       </c>
       <c r="M25">
-        <v>0.2299646901644898</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.115050735369774</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.364386650421324</v>
+        <v>1.062216320625964</v>
       </c>
       <c r="C2">
-        <v>0.0779483408183026</v>
+        <v>0.1141885135673419</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09245392174090128</v>
+        <v>0.1788703831046661</v>
       </c>
       <c r="F2">
-        <v>1.511651787370752</v>
+        <v>2.587394167838568</v>
       </c>
       <c r="G2">
-        <v>0.8771764528017343</v>
+        <v>1.472043826745548</v>
       </c>
       <c r="H2">
-        <v>0.628172781909683</v>
+        <v>1.355903386789066</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05906796631584399</v>
+        <v>0.09545232200458287</v>
       </c>
       <c r="K2">
-        <v>1.040635604026647</v>
+        <v>0.547348162140878</v>
       </c>
       <c r="L2">
-        <v>0.32469273270668</v>
+        <v>0.3871886810256342</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.18711084859919</v>
+        <v>2.423160275878189</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.196321329367379</v>
+        <v>1.021508266728489</v>
       </c>
       <c r="C3">
-        <v>0.07477915758760645</v>
+        <v>0.1130465409057102</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08573989921807623</v>
+        <v>0.1780122692324504</v>
       </c>
       <c r="F3">
-        <v>1.432492925143762</v>
+        <v>2.582276900787704</v>
       </c>
       <c r="G3">
-        <v>0.848835276547419</v>
+        <v>1.473784726153085</v>
       </c>
       <c r="H3">
-        <v>0.6227445027331129</v>
+        <v>1.361684861232206</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05971996994126272</v>
+        <v>0.09557904080351065</v>
       </c>
       <c r="K3">
-        <v>0.903880048936287</v>
+        <v>0.5113466351630791</v>
       </c>
       <c r="L3">
-        <v>0.2891134103078912</v>
+        <v>0.3797505931779597</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.239032018088885</v>
+        <v>2.444880360320575</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.094155002337317</v>
+        <v>0.9970280576508515</v>
       </c>
       <c r="C4">
-        <v>0.07283416570266965</v>
+        <v>0.1123317331053784</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08170084153286084</v>
+        <v>0.1775485795231972</v>
       </c>
       <c r="F4">
-        <v>1.386158487717765</v>
+        <v>2.580332006271547</v>
       </c>
       <c r="G4">
-        <v>0.8330776682364842</v>
+        <v>1.475605756212644</v>
       </c>
       <c r="H4">
-        <v>0.6203624025784222</v>
+        <v>1.365757137647904</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06013427854670184</v>
+        <v>0.09566392449280592</v>
       </c>
       <c r="K4">
-        <v>0.8205567781656384</v>
+        <v>0.4894860451655063</v>
       </c>
       <c r="L4">
-        <v>0.2675271991226253</v>
+        <v>0.3753520217890696</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.272368590018026</v>
+        <v>2.458928697001607</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.052752843276494</v>
+        <v>0.9871821006285018</v>
       </c>
       <c r="C5">
-        <v>0.07204116764599888</v>
+        <v>0.1120370066837495</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08007478622106845</v>
+        <v>0.1773755634505214</v>
       </c>
       <c r="F5">
-        <v>1.367816926825654</v>
+        <v>2.579840690564737</v>
       </c>
       <c r="G5">
-        <v>0.8270478243505579</v>
+        <v>1.476536884493498</v>
       </c>
       <c r="H5">
-        <v>0.619620949253715</v>
+        <v>1.367548067151176</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06030668668665662</v>
+        <v>0.09570030299567023</v>
       </c>
       <c r="K5">
-        <v>0.7867426665425796</v>
+        <v>0.4806394438443817</v>
       </c>
       <c r="L5">
-        <v>0.2587906075065405</v>
+        <v>0.3736020763375194</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.286310568872373</v>
+        <v>2.464832549568172</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.04589127460676</v>
+        <v>0.9855550490536018</v>
       </c>
       <c r="C6">
-        <v>0.07190944946595579</v>
+        <v>0.1119878597849429</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07980595219763131</v>
+        <v>0.1773477985533845</v>
       </c>
       <c r="F6">
-        <v>1.364803082718268</v>
+        <v>2.579777308842452</v>
       </c>
       <c r="G6">
-        <v>0.8260696025930798</v>
+        <v>1.476702913097355</v>
       </c>
       <c r="H6">
-        <v>0.6195114017686763</v>
+        <v>1.367853390748877</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06033553248948031</v>
+        <v>0.09570645182499504</v>
       </c>
       <c r="K6">
-        <v>0.7811357596957293</v>
+        <v>0.4791742114866793</v>
       </c>
       <c r="L6">
-        <v>0.2573433747447353</v>
+        <v>0.3733140710757112</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.28864692830582</v>
+        <v>2.465823692724129</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.093595735353745</v>
+        <v>0.996894744897304</v>
       </c>
       <c r="C7">
-        <v>0.07282347345871187</v>
+        <v>0.1123277722461147</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08167883281117128</v>
+        <v>0.1775461815554777</v>
       </c>
       <c r="F7">
-        <v>1.385908979372019</v>
+        <v>2.580324160202991</v>
       </c>
       <c r="G7">
-        <v>0.8329947904869073</v>
+        <v>1.475617548412984</v>
       </c>
       <c r="H7">
-        <v>0.6203514873626972</v>
+        <v>1.365780758441844</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06013658915474984</v>
+        <v>0.09566440785722818</v>
       </c>
       <c r="K7">
-        <v>0.820100206585181</v>
+        <v>0.4893664863347738</v>
       </c>
       <c r="L7">
-        <v>0.2674091384226074</v>
+        <v>0.3753282490970236</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.272555182562126</v>
+        <v>2.459007593530281</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.306208113276341</v>
+        <v>1.048073642684926</v>
       </c>
       <c r="C8">
-        <v>0.07685502924909571</v>
+        <v>0.1137975852765081</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09012095592379055</v>
+        <v>0.1785614186529259</v>
       </c>
       <c r="F8">
-        <v>1.483867852728508</v>
+        <v>2.585381392122912</v>
       </c>
       <c r="G8">
-        <v>0.8670496425324501</v>
+        <v>1.472487936103064</v>
       </c>
       <c r="H8">
-        <v>0.6260976583146203</v>
+        <v>1.357788452947958</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05928991328029198</v>
+        <v>0.09549455038499133</v>
       </c>
       <c r="K8">
-        <v>0.993335044603441</v>
+        <v>0.5348842506236622</v>
       </c>
       <c r="L8">
-        <v>0.3123677895804491</v>
+        <v>0.384589155213348</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.204705187241263</v>
+        <v>2.430501547106175</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.732586027675438</v>
+        <v>1.152503491077852</v>
       </c>
       <c r="C9">
-        <v>0.08479890260021961</v>
+        <v>0.1165722123561608</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1073896577374391</v>
+        <v>0.181051773110859</v>
       </c>
       <c r="F9">
-        <v>1.695446515662539</v>
+        <v>2.604791359081958</v>
       </c>
       <c r="G9">
-        <v>0.9479299442642457</v>
+        <v>1.472323722681736</v>
       </c>
       <c r="H9">
-        <v>0.6453846778859997</v>
+        <v>1.346258113698255</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05773762879917399</v>
+        <v>0.09521727301672378</v>
       </c>
       <c r="K9">
-        <v>1.339214937481358</v>
+        <v>0.62607686344748</v>
       </c>
       <c r="L9">
-        <v>0.4028509974307894</v>
+        <v>0.404080958731555</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.083651448806187</v>
+        <v>2.380252001217038</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.053568497118306</v>
+        <v>1.231696325665894</v>
       </c>
       <c r="C10">
-        <v>0.09070580179071897</v>
+        <v>0.1185459231859127</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1205903974697478</v>
+        <v>0.1831836810863621</v>
       </c>
       <c r="F10">
-        <v>1.864973391244661</v>
+        <v>2.624836284913755</v>
       </c>
       <c r="G10">
-        <v>1.017522628654234</v>
+        <v>1.475854042320208</v>
       </c>
       <c r="H10">
-        <v>0.665151248418212</v>
+        <v>1.340309494104687</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05665883713415454</v>
+        <v>0.09504711812803635</v>
       </c>
       <c r="K10">
-        <v>1.598676051075216</v>
+        <v>0.6942515110039835</v>
       </c>
       <c r="L10">
-        <v>0.471133588008513</v>
+        <v>0.4192078805967157</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.002680928641539</v>
+        <v>2.346777907948216</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.201743367545362</v>
+        <v>1.268257238249646</v>
       </c>
       <c r="C11">
-        <v>0.09342009279883001</v>
+        <v>0.1194299309011839</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1267259956269591</v>
+        <v>0.1842187188886157</v>
       </c>
       <c r="F11">
-        <v>1.945683299752844</v>
+        <v>2.635211112286612</v>
       </c>
       <c r="G11">
-        <v>1.051770844518074</v>
+        <v>1.478255121502613</v>
       </c>
       <c r="H11">
-        <v>0.6755299630693656</v>
+        <v>1.338150625430913</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05618047435360118</v>
+        <v>0.09497690018578808</v>
       </c>
       <c r="K11">
-        <v>1.718255443555563</v>
+        <v>0.7255210831171723</v>
       </c>
       <c r="L11">
-        <v>0.5026828967239538</v>
+        <v>0.4262636017144672</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.967733385605051</v>
+        <v>2.332297457356383</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.258206166449781</v>
+        <v>1.282178572249052</v>
       </c>
       <c r="C12">
-        <v>0.09445292327404076</v>
+        <v>0.1197627025645147</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1290698149750646</v>
+        <v>0.1846199946348079</v>
       </c>
       <c r="F12">
-        <v>1.976810236096739</v>
+        <v>2.639320328769614</v>
       </c>
       <c r="G12">
-        <v>1.065146726791014</v>
+        <v>1.479278830912534</v>
       </c>
       <c r="H12">
-        <v>0.6796750970517138</v>
+        <v>1.337411755807523</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05600102602671164</v>
+        <v>0.09495133597726912</v>
       </c>
       <c r="K12">
-        <v>1.763794215430636</v>
+        <v>0.7373987769698829</v>
       </c>
       <c r="L12">
-        <v>0.514708211217453</v>
+        <v>0.42896037525243</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.954785531769879</v>
+        <v>2.326921558830975</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.246029525956487</v>
+        <v>1.279176969394143</v>
       </c>
       <c r="C13">
-        <v>0.0942302446591512</v>
+        <v>0.1196911222973682</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1285640968588169</v>
+        <v>0.184533158582596</v>
       </c>
       <c r="F13">
-        <v>1.970080620566833</v>
+        <v>2.638427310444357</v>
       </c>
       <c r="G13">
-        <v>1.062247319966545</v>
+        <v>1.479053263391052</v>
       </c>
       <c r="H13">
-        <v>0.6787725478537112</v>
+        <v>1.337567387338879</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05603959933725555</v>
+        <v>0.09495679618435204</v>
       </c>
       <c r="K13">
-        <v>1.753974641771322</v>
+        <v>0.7348390808685963</v>
       </c>
       <c r="L13">
-        <v>0.5121147255312053</v>
+        <v>0.4283784707305216</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.957561114542564</v>
+        <v>2.328074570467891</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.206381285790087</v>
+        <v>1.269401024391982</v>
       </c>
       <c r="C14">
-        <v>0.0935049578868572</v>
+        <v>0.1194573479215535</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.126918404386867</v>
+        <v>0.1842515453938489</v>
       </c>
       <c r="F14">
-        <v>1.948232546127414</v>
+        <v>2.635545563524488</v>
       </c>
       <c r="G14">
-        <v>1.052862926078461</v>
+        <v>1.478337047705338</v>
       </c>
       <c r="H14">
-        <v>0.6758665845414669</v>
+        <v>1.338088262189842</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05616567751405022</v>
+        <v>0.0949747764870299</v>
       </c>
       <c r="K14">
-        <v>1.721996597951403</v>
+        <v>0.7264975366878161</v>
       </c>
       <c r="L14">
-        <v>0.5036706084716656</v>
+        <v>0.4264849682458305</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9666623366059639</v>
+        <v>2.331853023200672</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.182142759084002</v>
+        <v>1.263422924166036</v>
       </c>
       <c r="C15">
-        <v>0.09306138203631775</v>
+        <v>0.1193138963694977</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1259130776649648</v>
+        <v>0.1840802626802862</v>
       </c>
       <c r="F15">
-        <v>1.934924870791491</v>
+        <v>2.633803911358484</v>
       </c>
       <c r="G15">
-        <v>1.047168762670282</v>
+        <v>1.477913256704582</v>
       </c>
       <c r="H15">
-        <v>0.6741150721223477</v>
+        <v>1.338417554147071</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05624312250068897</v>
+        <v>0.09498592330782074</v>
       </c>
       <c r="K15">
-        <v>1.702443599731396</v>
+        <v>0.7213928553244671</v>
       </c>
       <c r="L15">
-        <v>0.498508791539976</v>
+        <v>0.4253283846945806</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9722748056300006</v>
+        <v>2.33418144183841</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.043931850887191</v>
+        <v>1.229317718911261</v>
       </c>
       <c r="C16">
-        <v>0.09052905347273565</v>
+        <v>0.1184878733039838</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1201921849050755</v>
+        <v>0.1831173471368039</v>
       </c>
       <c r="F16">
-        <v>1.859775044087925</v>
+        <v>2.624183531740712</v>
       </c>
       <c r="G16">
-        <v>1.015339422144379</v>
+        <v>1.475713137549405</v>
       </c>
       <c r="H16">
-        <v>0.6645021789247778</v>
+        <v>1.340461588803265</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05669034145103602</v>
+        <v>0.0950518509936753</v>
       </c>
       <c r="K16">
-        <v>1.590895263415064</v>
+        <v>0.6922131074495326</v>
       </c>
       <c r="L16">
-        <v>0.4690822583614818</v>
+        <v>0.4187502689485001</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.005004025893861</v>
+        <v>2.347739281489723</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.959725447434607</v>
+        <v>1.20853211237511</v>
       </c>
       <c r="C17">
-        <v>0.08898325280365782</v>
+        <v>0.1179775948323964</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1167171553608206</v>
+        <v>0.182543299364081</v>
       </c>
       <c r="F17">
-        <v>1.814625458060775</v>
+        <v>2.618603393358342</v>
       </c>
       <c r="G17">
-        <v>0.9965001390497576</v>
+        <v>1.474567180963589</v>
       </c>
       <c r="H17">
-        <v>0.6589708224630044</v>
+        <v>1.341855658481066</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05696780998317585</v>
+        <v>0.09509413067843653</v>
       </c>
       <c r="K17">
-        <v>1.522884002693189</v>
+        <v>0.6743777729597298</v>
       </c>
       <c r="L17">
-        <v>0.4511604688552922</v>
+        <v>0.4147593681017128</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.025575613768552</v>
+        <v>2.356247995767468</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.911492606923247</v>
+        <v>1.196627234540756</v>
       </c>
       <c r="C18">
-        <v>0.08809664014770391</v>
+        <v>0.117682792692591</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1147305902822033</v>
+        <v>0.1822192642395635</v>
       </c>
       <c r="F18">
-        <v>1.788991586838335</v>
+        <v>2.615512102703434</v>
       </c>
       <c r="G18">
-        <v>0.9859058629573667</v>
+        <v>1.473982889219812</v>
       </c>
       <c r="H18">
-        <v>0.6559188635431781</v>
+        <v>1.342708996597935</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05712857358596679</v>
+        <v>0.09511912570011027</v>
       </c>
       <c r="K18">
-        <v>1.483909357877195</v>
+        <v>0.6641435296273244</v>
       </c>
       <c r="L18">
-        <v>0.440897660419779</v>
+        <v>0.412480332877962</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.037584446342031</v>
+        <v>2.361212295607316</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.895195004294152</v>
+        <v>1.192605128800096</v>
       </c>
       <c r="C19">
-        <v>0.08779684516689201</v>
+        <v>0.1175827536470706</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1140600175809716</v>
+        <v>0.1821106079126444</v>
       </c>
       <c r="F19">
-        <v>1.780368546078307</v>
+        <v>2.614485760471609</v>
       </c>
       <c r="G19">
-        <v>0.9823593127247534</v>
+        <v>1.473797906463062</v>
       </c>
       <c r="H19">
-        <v>0.6549073173098634</v>
+        <v>1.343006769628602</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05718320897182494</v>
+        <v>0.09512770506926849</v>
       </c>
       <c r="K19">
-        <v>1.470736894813939</v>
+        <v>0.660682551272771</v>
       </c>
       <c r="L19">
-        <v>0.4374303953627106</v>
+        <v>0.4117115165016401</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.041680331358172</v>
+        <v>2.362905195352589</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.968668324172995</v>
+        <v>1.210739557736701</v>
       </c>
       <c r="C20">
-        <v>0.08914754067350117</v>
+        <v>0.1180320496930847</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1170858061540549</v>
+        <v>0.1826037724176572</v>
       </c>
       <c r="F20">
-        <v>1.81939670807165</v>
+        <v>2.619185170570731</v>
       </c>
       <c r="G20">
-        <v>0.9984803700653231</v>
+        <v>1.474681424166349</v>
       </c>
       <c r="H20">
-        <v>0.659546130435487</v>
+        <v>1.341701926970032</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05693815237526323</v>
+        <v>0.0950895599358681</v>
       </c>
       <c r="K20">
-        <v>1.530108815446624</v>
+        <v>0.6762738755816997</v>
       </c>
       <c r="L20">
-        <v>0.4530635248747643</v>
+        <v>0.415182507465687</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.02336735263404</v>
+        <v>2.355334950782563</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.218017026310974</v>
+        <v>1.272270384112687</v>
       </c>
       <c r="C21">
-        <v>0.09371784773324521</v>
+        <v>0.1195260668750819</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.127401216841676</v>
+        <v>0.1843340092105734</v>
       </c>
       <c r="F21">
-        <v>1.954634155862735</v>
+        <v>2.636387105136833</v>
       </c>
       <c r="G21">
-        <v>1.055608020966545</v>
+        <v>1.478544309766434</v>
       </c>
       <c r="H21">
-        <v>0.6767141729238091</v>
+        <v>1.337933134455568</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05612859992690211</v>
+        <v>0.09496946745693791</v>
       </c>
       <c r="K21">
-        <v>1.731382075131393</v>
+        <v>0.7289466599682726</v>
       </c>
       <c r="L21">
-        <v>0.5061486572883638</v>
+        <v>0.4270404605965723</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9639812007206174</v>
+        <v>2.330740280754696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.383055586391379</v>
+        <v>1.31293005274199</v>
       </c>
       <c r="C22">
-        <v>0.09673445723709051</v>
+        <v>0.1204909394096632</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1342626973362506</v>
+        <v>0.185519174941529</v>
       </c>
       <c r="F22">
-        <v>2.046330960577677</v>
+        <v>2.648681551296875</v>
       </c>
       <c r="G22">
-        <v>1.095333570959454</v>
+        <v>1.481736227870925</v>
       </c>
       <c r="H22">
-        <v>0.6891954661986404</v>
+        <v>1.33592840950142</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05560936090490642</v>
+        <v>0.09489695575672386</v>
       </c>
       <c r="K22">
-        <v>1.864439547286935</v>
+        <v>0.7635844742450786</v>
       </c>
       <c r="L22">
-        <v>0.5413033974145804</v>
+        <v>0.4349355292704615</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9268438316443621</v>
+        <v>2.315293082656908</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.29476683165575</v>
+        <v>1.291188611551206</v>
       </c>
       <c r="C23">
-        <v>0.09512133900079789</v>
+        <v>0.119977023394739</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1305890655864381</v>
+        <v>0.1848816724292064</v>
       </c>
       <c r="F23">
-        <v>1.997070992030459</v>
+        <v>2.642023569124831</v>
       </c>
       <c r="G23">
-        <v>1.073900567512823</v>
+        <v>1.479971538076896</v>
       </c>
       <c r="H23">
-        <v>0.6824131153588837</v>
+        <v>1.336956437587418</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05588561629075883</v>
+        <v>0.09493511233486096</v>
       </c>
       <c r="K23">
-        <v>1.793273817929645</v>
+        <v>0.7450782242803484</v>
       </c>
       <c r="L23">
-        <v>0.5224956269898087</v>
+        <v>0.4307085467778222</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9465062844148804</v>
+        <v>2.323480151650934</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.96462469660031</v>
+        <v>1.209741431340376</v>
       </c>
       <c r="C24">
-        <v>0.08907325970130842</v>
+        <v>0.1180074351252998</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1169191041311706</v>
+        <v>0.1825764138807777</v>
       </c>
       <c r="F24">
-        <v>1.817238622701481</v>
+        <v>2.618921785235955</v>
       </c>
       <c r="G24">
-        <v>0.9975843729862675</v>
+        <v>1.474629542650518</v>
       </c>
       <c r="H24">
-        <v>0.6592856358824832</v>
+        <v>1.341771267408674</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05695155670115604</v>
+        <v>0.09509162422502371</v>
       </c>
       <c r="K24">
-        <v>1.526842087868289</v>
+        <v>0.6754165867358779</v>
       </c>
       <c r="L24">
-        <v>0.4522030271927662</v>
+        <v>0.4149911582209</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.024365141853146</v>
+        <v>2.355747512500088</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.616034084195832</v>
+        <v>1.123818153692184</v>
       </c>
       <c r="C25">
-        <v>0.0826411760924799</v>
+        <v>0.1158330434299231</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1026338352572971</v>
+        <v>0.1803248268150384</v>
       </c>
       <c r="F25">
-        <v>1.635905171296997</v>
+        <v>2.598524460054932</v>
       </c>
       <c r="G25">
-        <v>0.9243846956194517</v>
+        <v>1.471727704208291</v>
       </c>
       <c r="H25">
-        <v>0.6392386512445682</v>
+        <v>1.348934171101163</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0581464154660658</v>
+        <v>0.09528635694475796</v>
       </c>
       <c r="K25">
-        <v>1.244828625423594</v>
+        <v>0.6012002411365813</v>
       </c>
       <c r="L25">
-        <v>0.3780858877865398</v>
+        <v>0.3986659382875217</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.115050735369774</v>
+        <v>2.393240960532616</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.062216320625964</v>
+        <v>1.364386650421324</v>
       </c>
       <c r="C2">
-        <v>0.1141885135673419</v>
+        <v>0.07794834081806812</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1788703831046661</v>
+        <v>0.09245392174090838</v>
       </c>
       <c r="F2">
-        <v>2.587394167838568</v>
+        <v>1.511651787370752</v>
       </c>
       <c r="G2">
-        <v>1.472043826745548</v>
+        <v>0.8771764528017343</v>
       </c>
       <c r="H2">
-        <v>1.355903386789066</v>
+        <v>0.6281727819096972</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09545232200458287</v>
+        <v>0.05906796631574096</v>
       </c>
       <c r="K2">
-        <v>0.547348162140878</v>
+        <v>1.040635604026647</v>
       </c>
       <c r="L2">
-        <v>0.3871886810256342</v>
+        <v>0.3246927327067226</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.423160275878189</v>
+        <v>1.187110848599193</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.021508266728489</v>
+        <v>1.196321329367464</v>
       </c>
       <c r="C3">
-        <v>0.1130465409057102</v>
+        <v>0.07477915758759934</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1780122692324504</v>
+        <v>0.08573989921805847</v>
       </c>
       <c r="F3">
-        <v>2.582276900787704</v>
+        <v>1.432492925143762</v>
       </c>
       <c r="G3">
-        <v>1.473784726153085</v>
+        <v>0.8488352765474048</v>
       </c>
       <c r="H3">
-        <v>1.361684861232206</v>
+        <v>0.6227445027331129</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09557904080351065</v>
+        <v>0.05971996994125917</v>
       </c>
       <c r="K3">
-        <v>0.5113466351630791</v>
+        <v>0.9038800489363723</v>
       </c>
       <c r="L3">
-        <v>0.3797505931779597</v>
+        <v>0.2891134103078628</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.444880360320575</v>
+        <v>1.239032018088828</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9970280576508515</v>
+        <v>1.09415500233726</v>
       </c>
       <c r="C4">
-        <v>0.1123317331053784</v>
+        <v>0.07283416570277623</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1775485795231972</v>
+        <v>0.08170084153284307</v>
       </c>
       <c r="F4">
-        <v>2.580332006271547</v>
+        <v>1.386158487717793</v>
       </c>
       <c r="G4">
-        <v>1.475605756212644</v>
+        <v>0.8330776682365411</v>
       </c>
       <c r="H4">
-        <v>1.365757137647904</v>
+        <v>0.6203624025784222</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09566392449280592</v>
+        <v>0.06013427854660058</v>
       </c>
       <c r="K4">
-        <v>0.4894860451655063</v>
+        <v>0.8205567781657237</v>
       </c>
       <c r="L4">
-        <v>0.3753520217890696</v>
+        <v>0.2675271991225543</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.458928697001607</v>
+        <v>1.272368590018036</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9871821006285018</v>
+        <v>1.05275284327638</v>
       </c>
       <c r="C5">
-        <v>0.1120370066837495</v>
+        <v>0.07204116764600599</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1773755634505214</v>
+        <v>0.08007478622105779</v>
       </c>
       <c r="F5">
-        <v>2.579840690564737</v>
+        <v>1.367816926825668</v>
       </c>
       <c r="G5">
-        <v>1.476536884493498</v>
+        <v>0.8270478243505295</v>
       </c>
       <c r="H5">
-        <v>1.367548067151176</v>
+        <v>0.619620949253715</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09570030299567023</v>
+        <v>0.06030668668672412</v>
       </c>
       <c r="K5">
-        <v>0.4806394438443817</v>
+        <v>0.7867426665425228</v>
       </c>
       <c r="L5">
-        <v>0.3736020763375194</v>
+        <v>0.2587906075064978</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.464832549568172</v>
+        <v>1.28631056887242</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9855550490536018</v>
+        <v>1.045891274606902</v>
       </c>
       <c r="C6">
-        <v>0.1119878597849429</v>
+        <v>0.07190944946572841</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1773477985533845</v>
+        <v>0.07980595219763487</v>
       </c>
       <c r="F6">
-        <v>2.579777308842452</v>
+        <v>1.364803082718268</v>
       </c>
       <c r="G6">
-        <v>1.476702913097355</v>
+        <v>0.826069602593023</v>
       </c>
       <c r="H6">
-        <v>1.367853390748877</v>
+        <v>0.6195114017687615</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09570645182499504</v>
+        <v>0.0603355324895265</v>
       </c>
       <c r="K6">
-        <v>0.4791742114866793</v>
+        <v>0.7811357596957862</v>
       </c>
       <c r="L6">
-        <v>0.3733140710757112</v>
+        <v>0.2573433747447353</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.465823692724129</v>
+        <v>1.28864692830588</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.996894744897304</v>
+        <v>1.093595735353631</v>
       </c>
       <c r="C7">
-        <v>0.1123277722461147</v>
+        <v>0.07282347345872608</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1775461815554777</v>
+        <v>0.08167883281118549</v>
       </c>
       <c r="F7">
-        <v>2.580324160202991</v>
+        <v>1.385908979372047</v>
       </c>
       <c r="G7">
-        <v>1.475617548412984</v>
+        <v>0.8329947904868931</v>
       </c>
       <c r="H7">
-        <v>1.365780758441844</v>
+        <v>0.6203514873627114</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09566440785722818</v>
+        <v>0.06013658915470366</v>
       </c>
       <c r="K7">
-        <v>0.4893664863347738</v>
+        <v>0.8201002065852663</v>
       </c>
       <c r="L7">
-        <v>0.3753282490970236</v>
+        <v>0.2674091384226216</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.459007593530281</v>
+        <v>1.272555182562151</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.048073642684926</v>
+        <v>1.30620811327654</v>
       </c>
       <c r="C8">
-        <v>0.1137975852765081</v>
+        <v>0.07685502924943677</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1785614186529259</v>
+        <v>0.09012095592380831</v>
       </c>
       <c r="F8">
-        <v>2.585381392122912</v>
+        <v>1.483867852728494</v>
       </c>
       <c r="G8">
-        <v>1.472487936103064</v>
+        <v>0.8670496425324359</v>
       </c>
       <c r="H8">
-        <v>1.357788452947958</v>
+        <v>0.6260976583146345</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09549455038499133</v>
+        <v>0.05928991328038791</v>
       </c>
       <c r="K8">
-        <v>0.5348842506236622</v>
+        <v>0.993335044603441</v>
       </c>
       <c r="L8">
-        <v>0.384589155213348</v>
+        <v>0.3123677895803922</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.430501547106175</v>
+        <v>1.204705187241252</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.152503491077852</v>
+        <v>1.732586027675524</v>
       </c>
       <c r="C9">
-        <v>0.1165722123561608</v>
+        <v>0.08479890260058909</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.181051773110859</v>
+        <v>0.1073896577374391</v>
       </c>
       <c r="F9">
-        <v>2.604791359081958</v>
+        <v>1.695446515662539</v>
       </c>
       <c r="G9">
-        <v>1.472323722681736</v>
+        <v>0.9479299442642457</v>
       </c>
       <c r="H9">
-        <v>1.346258113698255</v>
+        <v>0.645384677885886</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09521727301672378</v>
+        <v>0.0577376287992557</v>
       </c>
       <c r="K9">
-        <v>0.62607686344748</v>
+        <v>1.339214937481216</v>
       </c>
       <c r="L9">
-        <v>0.404080958731555</v>
+        <v>0.4028509974308321</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.380252001217038</v>
+        <v>1.083651448806279</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.231696325665894</v>
+        <v>2.053568497118476</v>
       </c>
       <c r="C10">
-        <v>0.1185459231859127</v>
+        <v>0.09070580179057686</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1831836810863621</v>
+        <v>0.1205903974697478</v>
       </c>
       <c r="F10">
-        <v>2.624836284913755</v>
+        <v>1.864973391244689</v>
       </c>
       <c r="G10">
-        <v>1.475854042320208</v>
+        <v>1.017522628654262</v>
       </c>
       <c r="H10">
-        <v>1.340309494104687</v>
+        <v>0.665151248418212</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09504711812803635</v>
+        <v>0.05665883713405329</v>
       </c>
       <c r="K10">
-        <v>0.6942515110039835</v>
+        <v>1.59867605107533</v>
       </c>
       <c r="L10">
-        <v>0.4192078805967157</v>
+        <v>0.4711335880084704</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.346777907948216</v>
+        <v>1.002680928641603</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.268257238249646</v>
+        <v>2.201743367545419</v>
       </c>
       <c r="C11">
-        <v>0.1194299309011839</v>
+        <v>0.0934200927989508</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1842187188886157</v>
+        <v>0.1267259956269555</v>
       </c>
       <c r="F11">
-        <v>2.635211112286612</v>
+        <v>1.945683299752858</v>
       </c>
       <c r="G11">
-        <v>1.478255121502613</v>
+        <v>1.051770844518117</v>
       </c>
       <c r="H11">
-        <v>1.338150625430913</v>
+        <v>0.6755299630693656</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09497690018578808</v>
+        <v>0.05618047435359053</v>
       </c>
       <c r="K11">
-        <v>0.7255210831171723</v>
+        <v>1.718255443555563</v>
       </c>
       <c r="L11">
-        <v>0.4262636017144672</v>
+        <v>0.5026828967238544</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.332297457356383</v>
+        <v>0.9677333856049941</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.282178572249052</v>
+        <v>2.258206166449895</v>
       </c>
       <c r="C12">
-        <v>0.1197627025645147</v>
+        <v>0.09445292327402655</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1846199946348079</v>
+        <v>0.1290698149750575</v>
       </c>
       <c r="F12">
-        <v>2.639320328769614</v>
+        <v>1.976810236096711</v>
       </c>
       <c r="G12">
-        <v>1.479278830912534</v>
+        <v>1.065146726791056</v>
       </c>
       <c r="H12">
-        <v>1.337411755807523</v>
+        <v>0.6796750970517138</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09495133597726912</v>
+        <v>0.05600102602676493</v>
       </c>
       <c r="K12">
-        <v>0.7373987769698829</v>
+        <v>1.763794215430579</v>
       </c>
       <c r="L12">
-        <v>0.42896037525243</v>
+        <v>0.514708211217453</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.326921558830975</v>
+        <v>0.9547855317698151</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.279176969394143</v>
+        <v>2.246029525956487</v>
       </c>
       <c r="C13">
-        <v>0.1196911222973682</v>
+        <v>0.09423024465901619</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.184533158582596</v>
+        <v>0.128564096858824</v>
       </c>
       <c r="F13">
-        <v>2.638427310444357</v>
+        <v>1.970080620566833</v>
       </c>
       <c r="G13">
-        <v>1.479053263391052</v>
+        <v>1.062247319966602</v>
       </c>
       <c r="H13">
-        <v>1.337567387338879</v>
+        <v>0.6787725478538249</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09495679618435204</v>
+        <v>0.05603959933725022</v>
       </c>
       <c r="K13">
-        <v>0.7348390808685963</v>
+        <v>1.753974641771265</v>
       </c>
       <c r="L13">
-        <v>0.4283784707305216</v>
+        <v>0.5121147255313048</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.328074570467891</v>
+        <v>0.9575611145425569</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.269401024391982</v>
+        <v>2.206381285790087</v>
       </c>
       <c r="C14">
-        <v>0.1194573479215535</v>
+        <v>0.09350495788697089</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1842515453938489</v>
+        <v>0.1269184043868776</v>
       </c>
       <c r="F14">
-        <v>2.635545563524488</v>
+        <v>1.9482325461274</v>
       </c>
       <c r="G14">
-        <v>1.478337047705338</v>
+        <v>1.05286292607849</v>
       </c>
       <c r="H14">
-        <v>1.338088262189842</v>
+        <v>0.6758665845415806</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0949747764870299</v>
+        <v>0.0561656775139312</v>
       </c>
       <c r="K14">
-        <v>0.7264975366878161</v>
+        <v>1.721996597951431</v>
       </c>
       <c r="L14">
-        <v>0.4264849682458305</v>
+        <v>0.5036706084716371</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.331853023200672</v>
+        <v>0.9666623366059568</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.263422924166036</v>
+        <v>2.182142759084002</v>
       </c>
       <c r="C15">
-        <v>0.1193138963694977</v>
+        <v>0.09306138203630354</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1840802626802862</v>
+        <v>0.1259130776649613</v>
       </c>
       <c r="F15">
-        <v>2.633803911358484</v>
+        <v>1.934924870791491</v>
       </c>
       <c r="G15">
-        <v>1.477913256704582</v>
+        <v>1.047168762670225</v>
       </c>
       <c r="H15">
-        <v>1.338417554147071</v>
+        <v>0.6741150721222482</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09498592330782074</v>
+        <v>0.05624312250076002</v>
       </c>
       <c r="K15">
-        <v>0.7213928553244671</v>
+        <v>1.702443599731367</v>
       </c>
       <c r="L15">
-        <v>0.4253283846945806</v>
+        <v>0.498508791539976</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.33418144183841</v>
+        <v>0.9722748056300148</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.229317718911261</v>
+        <v>2.043931850887191</v>
       </c>
       <c r="C16">
-        <v>0.1184878733039838</v>
+        <v>0.09052905347275697</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1831173471368039</v>
+        <v>0.1201921849050755</v>
       </c>
       <c r="F16">
-        <v>2.624183531740712</v>
+        <v>1.859775044087925</v>
       </c>
       <c r="G16">
-        <v>1.475713137549405</v>
+        <v>1.015339422144436</v>
       </c>
       <c r="H16">
-        <v>1.340461588803265</v>
+        <v>0.6645021789247778</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0950518509936753</v>
+        <v>0.05669034145103247</v>
       </c>
       <c r="K16">
-        <v>0.6922131074495326</v>
+        <v>1.590895263415007</v>
       </c>
       <c r="L16">
-        <v>0.4187502689485001</v>
+        <v>0.4690822583614533</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.347739281489723</v>
+        <v>1.005004025893861</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.20853211237511</v>
+        <v>1.959725447434721</v>
       </c>
       <c r="C17">
-        <v>0.1179775948323964</v>
+        <v>0.08898325280340913</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.182543299364081</v>
+        <v>0.1167171553608206</v>
       </c>
       <c r="F17">
-        <v>2.618603393358342</v>
+        <v>1.814625458060775</v>
       </c>
       <c r="G17">
-        <v>1.474567180963589</v>
+        <v>0.9965001390497434</v>
       </c>
       <c r="H17">
-        <v>1.341855658481066</v>
+        <v>0.6589708224631181</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09509413067843653</v>
+        <v>0.05696780998317585</v>
       </c>
       <c r="K17">
-        <v>0.6743777729597298</v>
+        <v>1.522884002693218</v>
       </c>
       <c r="L17">
-        <v>0.4147593681017128</v>
+        <v>0.4511604688552922</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.356247995767468</v>
+        <v>1.025575613768616</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.196627234540756</v>
+        <v>1.911492606923304</v>
       </c>
       <c r="C18">
-        <v>0.117682792692591</v>
+        <v>0.08809664014771812</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1822192642395635</v>
+        <v>0.1147305902821962</v>
       </c>
       <c r="F18">
-        <v>2.615512102703434</v>
+        <v>1.788991586838335</v>
       </c>
       <c r="G18">
-        <v>1.473982889219812</v>
+        <v>0.9859058629573667</v>
       </c>
       <c r="H18">
-        <v>1.342708996597935</v>
+        <v>0.6559188635430644</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09511912570011027</v>
+        <v>0.05712857358591528</v>
       </c>
       <c r="K18">
-        <v>0.6641435296273244</v>
+        <v>1.483909357877224</v>
       </c>
       <c r="L18">
-        <v>0.412480332877962</v>
+        <v>0.4408976604198926</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.361212295607316</v>
+        <v>1.037584446342009</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.192605128800096</v>
+        <v>1.89519500429401</v>
       </c>
       <c r="C19">
-        <v>0.1175827536470706</v>
+        <v>0.0877968451668707</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1821106079126444</v>
+        <v>0.1140600175809574</v>
       </c>
       <c r="F19">
-        <v>2.614485760471609</v>
+        <v>1.780368546078293</v>
       </c>
       <c r="G19">
-        <v>1.473797906463062</v>
+        <v>0.9823593127247534</v>
       </c>
       <c r="H19">
-        <v>1.343006769628602</v>
+        <v>0.6549073173099913</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09512770506926849</v>
+        <v>0.05718320897172369</v>
       </c>
       <c r="K19">
-        <v>0.660682551272771</v>
+        <v>1.470736894813911</v>
       </c>
       <c r="L19">
-        <v>0.4117115165016401</v>
+        <v>0.4374303953627532</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.362905195352589</v>
+        <v>1.041680331358158</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.210739557736701</v>
+        <v>1.968668324172995</v>
       </c>
       <c r="C20">
-        <v>0.1180320496930847</v>
+        <v>0.08914754067338038</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1826037724176572</v>
+        <v>0.1170858061540194</v>
       </c>
       <c r="F20">
-        <v>2.619185170570731</v>
+        <v>1.81939670807165</v>
       </c>
       <c r="G20">
-        <v>1.474681424166349</v>
+        <v>0.9984803700653799</v>
       </c>
       <c r="H20">
-        <v>1.341701926970032</v>
+        <v>0.6595461304355013</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0950895599358681</v>
+        <v>0.0569381523753556</v>
       </c>
       <c r="K20">
-        <v>0.6762738755816997</v>
+        <v>1.530108815446596</v>
       </c>
       <c r="L20">
-        <v>0.415182507465687</v>
+        <v>0.4530635248746648</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.355334950782563</v>
+        <v>1.023367352634146</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.272270384112687</v>
+        <v>2.218017026311031</v>
       </c>
       <c r="C21">
-        <v>0.1195260668750819</v>
+        <v>0.09371784773337311</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1843340092105734</v>
+        <v>0.127401216841676</v>
       </c>
       <c r="F21">
-        <v>2.636387105136833</v>
+        <v>1.95463415586272</v>
       </c>
       <c r="G21">
-        <v>1.478544309766434</v>
+        <v>1.055608020966531</v>
       </c>
       <c r="H21">
-        <v>1.337933134455568</v>
+        <v>0.6767141729238944</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09496946745693791</v>
+        <v>0.05612859992696428</v>
       </c>
       <c r="K21">
-        <v>0.7289466599682726</v>
+        <v>1.731382075131393</v>
       </c>
       <c r="L21">
-        <v>0.4270404605965723</v>
+        <v>0.5061486572882643</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.330740280754696</v>
+        <v>0.9639812007206245</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.31293005274199</v>
+        <v>2.383055586391492</v>
       </c>
       <c r="C22">
-        <v>0.1204909394096632</v>
+        <v>0.0967344572370834</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.185519174941529</v>
+        <v>0.1342626973362577</v>
       </c>
       <c r="F22">
-        <v>2.648681551296875</v>
+        <v>2.046330960577677</v>
       </c>
       <c r="G22">
-        <v>1.481736227870925</v>
+        <v>1.095333570959369</v>
       </c>
       <c r="H22">
-        <v>1.33592840950142</v>
+        <v>0.6891954661986119</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09489695575672386</v>
+        <v>0.05560936090495794</v>
       </c>
       <c r="K22">
-        <v>0.7635844742450786</v>
+        <v>1.864439547286935</v>
       </c>
       <c r="L22">
-        <v>0.4349355292704615</v>
+        <v>0.541303397414552</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.315293082656908</v>
+        <v>0.926843831644355</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.291188611551206</v>
+        <v>2.29476683165575</v>
       </c>
       <c r="C23">
-        <v>0.119977023394739</v>
+        <v>0.09512133900094</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1848816724292064</v>
+        <v>0.1305890655864417</v>
       </c>
       <c r="F23">
-        <v>2.642023569124831</v>
+        <v>1.997070992030459</v>
       </c>
       <c r="G23">
-        <v>1.479971538076896</v>
+        <v>1.07390056751278</v>
       </c>
       <c r="H23">
-        <v>1.336956437587418</v>
+        <v>0.6824131153589974</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09493511233486096</v>
+        <v>0.05588561629080502</v>
       </c>
       <c r="K23">
-        <v>0.7450782242803484</v>
+        <v>1.793273817929759</v>
       </c>
       <c r="L23">
-        <v>0.4307085467778222</v>
+        <v>0.522495626989766</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.323480151650934</v>
+        <v>0.9465062844148591</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.209741431340376</v>
+        <v>1.964624696600367</v>
       </c>
       <c r="C24">
-        <v>0.1180074351252998</v>
+        <v>0.08907325970131552</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1825764138807777</v>
+        <v>0.1169191041311883</v>
       </c>
       <c r="F24">
-        <v>2.618921785235955</v>
+        <v>1.817238622701495</v>
       </c>
       <c r="G24">
-        <v>1.474629542650518</v>
+        <v>0.9975843729863101</v>
       </c>
       <c r="H24">
-        <v>1.341771267408674</v>
+        <v>0.6592856358823553</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09509162422502371</v>
+        <v>0.0569515567011738</v>
       </c>
       <c r="K24">
-        <v>0.6754165867358779</v>
+        <v>1.526842087868317</v>
       </c>
       <c r="L24">
-        <v>0.4149911582209</v>
+        <v>0.4522030271927946</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.355747512500088</v>
+        <v>1.024365141853167</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123818153692184</v>
+        <v>1.616034084195803</v>
       </c>
       <c r="C25">
-        <v>0.1158330434299231</v>
+        <v>0.08264117609236621</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1803248268150384</v>
+        <v>0.1026338352573113</v>
       </c>
       <c r="F25">
-        <v>2.598524460054932</v>
+        <v>1.635905171296997</v>
       </c>
       <c r="G25">
-        <v>1.471727704208291</v>
+        <v>0.9243846956194091</v>
       </c>
       <c r="H25">
-        <v>1.348934171101163</v>
+        <v>0.6392386512445825</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09528635694475796</v>
+        <v>0.05814641546610666</v>
       </c>
       <c r="K25">
-        <v>0.6012002411365813</v>
+        <v>1.24482862542348</v>
       </c>
       <c r="L25">
-        <v>0.3986659382875217</v>
+        <v>0.3780858877865541</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.393240960532616</v>
+        <v>1.115050735369806</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.364386650421324</v>
+        <v>2.34332942889472</v>
       </c>
       <c r="C2">
-        <v>0.07794834081806812</v>
+        <v>0.740454856712546</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09245392174090838</v>
+        <v>0.2950154110805272</v>
       </c>
       <c r="F2">
-        <v>1.511651787370752</v>
+        <v>1.622051300773379</v>
       </c>
       <c r="G2">
-        <v>0.8771764528017343</v>
+        <v>0.561445027523817</v>
       </c>
       <c r="H2">
-        <v>0.6281727819096972</v>
+        <v>0.0002274614119694984</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001340764062476296</v>
       </c>
       <c r="J2">
-        <v>0.05906796631574096</v>
+        <v>0.3994187588275082</v>
       </c>
       <c r="K2">
-        <v>1.040635604026647</v>
+        <v>0.2963701505498655</v>
       </c>
       <c r="L2">
-        <v>0.3246927327067226</v>
+        <v>0.03633457607020096</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.187110848599193</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9920099831506306</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.196321329367464</v>
+        <v>2.041209159215725</v>
       </c>
       <c r="C3">
-        <v>0.07477915758759934</v>
+        <v>0.6474795204436816</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08573989921805847</v>
+        <v>0.2658399179764075</v>
       </c>
       <c r="F3">
-        <v>1.432492925143762</v>
+        <v>1.489661118117311</v>
       </c>
       <c r="G3">
-        <v>0.8488352765474048</v>
+        <v>0.5203547903741139</v>
       </c>
       <c r="H3">
-        <v>0.6227445027331129</v>
+        <v>0.001059936363112302</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005895172008334448</v>
       </c>
       <c r="J3">
-        <v>0.05971996994125917</v>
+        <v>0.3864163482161302</v>
       </c>
       <c r="K3">
-        <v>0.9038800489363723</v>
+        <v>0.2970937602661472</v>
       </c>
       <c r="L3">
-        <v>0.2891134103078628</v>
+        <v>0.03463655584755632</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.239032018088828</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8654793452225675</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.09415500233726</v>
+        <v>1.855517163841427</v>
       </c>
       <c r="C4">
-        <v>0.07283416570277623</v>
+        <v>0.590838247607536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08170084153284307</v>
+        <v>0.2480022787078582</v>
       </c>
       <c r="F4">
-        <v>1.386158487717793</v>
+        <v>1.409079307680997</v>
       </c>
       <c r="G4">
-        <v>0.8330776682365411</v>
+        <v>0.4957390279939489</v>
       </c>
       <c r="H4">
-        <v>0.6203624025784222</v>
+        <v>0.001905338412547808</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004317310979669031</v>
       </c>
       <c r="J4">
-        <v>0.06013427854660058</v>
+        <v>0.3788313175985536</v>
       </c>
       <c r="K4">
-        <v>0.8205567781657237</v>
+        <v>0.2978750757884718</v>
       </c>
       <c r="L4">
-        <v>0.2675271991225543</v>
+        <v>0.03355818973674696</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.272368590018036</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7880584636703674</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05275284327638</v>
+        <v>1.779457052244339</v>
       </c>
       <c r="C5">
-        <v>0.07204116764600599</v>
+        <v>0.5686973308949348</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08007478622105779</v>
+        <v>0.2409991502447539</v>
       </c>
       <c r="F5">
-        <v>1.367816926825668</v>
+        <v>1.375227887065364</v>
       </c>
       <c r="G5">
-        <v>0.8270478243505295</v>
+        <v>0.4845393588703644</v>
       </c>
       <c r="H5">
-        <v>0.619620949253715</v>
+        <v>0.002330531663718327</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005037136948145005</v>
       </c>
       <c r="J5">
-        <v>0.06030668668672412</v>
+        <v>0.3751550225411364</v>
       </c>
       <c r="K5">
-        <v>0.7867426665425228</v>
+        <v>0.2975501365062883</v>
       </c>
       <c r="L5">
-        <v>0.2587906075064978</v>
+        <v>0.03309739441627668</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.28631056887242</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7571429191302599</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.045891274606902</v>
+        <v>1.766426688111579</v>
       </c>
       <c r="C6">
-        <v>0.07190944946572841</v>
+        <v>0.5660597768103344</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07980595219763487</v>
+        <v>0.2401442657165234</v>
       </c>
       <c r="F6">
-        <v>1.364803082718268</v>
+        <v>1.368183161930148</v>
       </c>
       <c r="G6">
-        <v>0.826069602593023</v>
+        <v>0.4810917305750451</v>
       </c>
       <c r="H6">
-        <v>0.6195114017687615</v>
+        <v>0.002407200523721231</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006068654436868215</v>
       </c>
       <c r="J6">
-        <v>0.0603355324895265</v>
+        <v>0.3737215621515588</v>
       </c>
       <c r="K6">
-        <v>0.7811357596957862</v>
+        <v>0.2966204885222474</v>
       </c>
       <c r="L6">
-        <v>0.2573433747447353</v>
+        <v>0.03300579730703879</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.28864692830588</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.752719452128467</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.093595735353631</v>
+        <v>1.853404798080106</v>
       </c>
       <c r="C7">
-        <v>0.07282347345872608</v>
+        <v>0.5933690468743293</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08167883281118549</v>
+        <v>0.2487474638248486</v>
       </c>
       <c r="F7">
-        <v>1.385908979372047</v>
+        <v>1.404707489624926</v>
       </c>
       <c r="G7">
-        <v>0.8329947904868931</v>
+        <v>0.491222925386694</v>
       </c>
       <c r="H7">
-        <v>0.6203514873627114</v>
+        <v>0.001914018152465724</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006535850714115554</v>
       </c>
       <c r="J7">
-        <v>0.06013658915470366</v>
+        <v>0.3765185575623917</v>
       </c>
       <c r="K7">
-        <v>0.8201002065852663</v>
+        <v>0.2954659968927871</v>
       </c>
       <c r="L7">
-        <v>0.2674091384226216</v>
+        <v>0.03351210179521091</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.272555182562151</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7895759206540589</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.30620811327654</v>
+        <v>2.237727413556684</v>
       </c>
       <c r="C8">
-        <v>0.07685502924943677</v>
+        <v>0.7120776062414507</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09012095592380831</v>
+        <v>0.2860539419863599</v>
       </c>
       <c r="F8">
-        <v>1.483867852728494</v>
+        <v>1.571059118424955</v>
       </c>
       <c r="G8">
-        <v>0.8670496425324359</v>
+        <v>0.5413536009855022</v>
       </c>
       <c r="H8">
-        <v>0.6260976583146345</v>
+        <v>0.0004443201188868429</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001273393764542163</v>
       </c>
       <c r="J8">
-        <v>0.05928991328038791</v>
+        <v>0.3918598744742212</v>
       </c>
       <c r="K8">
-        <v>0.993335044603441</v>
+        <v>0.2933788534198527</v>
       </c>
       <c r="L8">
-        <v>0.3123677895803922</v>
+        <v>0.03570372110248332</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.204705187241252</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9508986486011821</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.732586027675524</v>
+        <v>2.992780719508744</v>
       </c>
       <c r="C9">
-        <v>0.08479890260058909</v>
+        <v>0.9439656978517235</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1073896577374391</v>
+        <v>0.3584924977763038</v>
       </c>
       <c r="F9">
-        <v>1.695446515662539</v>
+        <v>1.910859404419355</v>
       </c>
       <c r="G9">
-        <v>0.9479299442642457</v>
+        <v>0.6531455398777268</v>
       </c>
       <c r="H9">
-        <v>0.645384677885886</v>
+        <v>0.0004258012860409721</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004826458607597672</v>
       </c>
       <c r="J9">
-        <v>0.0577376287992557</v>
+        <v>0.4294963878198814</v>
       </c>
       <c r="K9">
-        <v>1.339214937481216</v>
+        <v>0.296522020867414</v>
       </c>
       <c r="L9">
-        <v>0.4028509974308321</v>
+        <v>0.03979811325788463</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.083651448806279</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.266422515372341</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.053568497118476</v>
+        <v>3.557944227067935</v>
       </c>
       <c r="C10">
-        <v>0.09070580179057686</v>
+        <v>1.118780775985613</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1205903974697478</v>
+        <v>0.3985200216294587</v>
       </c>
       <c r="F10">
-        <v>1.864973391244689</v>
+        <v>2.11797385549815</v>
       </c>
       <c r="G10">
-        <v>1.017522628654262</v>
+        <v>0.7227153013923697</v>
       </c>
       <c r="H10">
-        <v>0.665151248418212</v>
+        <v>0.002485683852264664</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00945848135390559</v>
       </c>
       <c r="J10">
-        <v>0.05665883713405329</v>
+        <v>0.4511031610424254</v>
       </c>
       <c r="K10">
-        <v>1.59867605107533</v>
+        <v>0.2931641962453533</v>
       </c>
       <c r="L10">
-        <v>0.4711335880084704</v>
+        <v>0.04251821306688441</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.002680928641603</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.480899261776358</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.201743367545419</v>
+        <v>3.902749557106631</v>
       </c>
       <c r="C11">
-        <v>0.0934200927989508</v>
+        <v>1.198819488360073</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1267259956269555</v>
+        <v>0.3051545259458379</v>
       </c>
       <c r="F11">
-        <v>1.945683299752858</v>
+        <v>1.822936684598773</v>
       </c>
       <c r="G11">
-        <v>1.051770844518117</v>
+        <v>0.623277989060341</v>
       </c>
       <c r="H11">
-        <v>0.6755299630693656</v>
+        <v>0.02096009496198548</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0117585934465172</v>
       </c>
       <c r="J11">
-        <v>0.05618047435359053</v>
+        <v>0.3944603914469411</v>
       </c>
       <c r="K11">
-        <v>1.718255443555563</v>
+        <v>0.2345288784110551</v>
       </c>
       <c r="L11">
-        <v>0.5026828967238544</v>
+        <v>0.05075193737630457</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9677333856049941</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.404037142661878</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.258206166449895</v>
+        <v>4.080136640959211</v>
       </c>
       <c r="C12">
-        <v>0.09445292327402655</v>
+        <v>1.224550610878509</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1290698149750575</v>
+        <v>0.2326489308537596</v>
       </c>
       <c r="F12">
-        <v>1.976810236096711</v>
+        <v>1.555315932765708</v>
       </c>
       <c r="G12">
-        <v>1.065146726791056</v>
+        <v>0.5366768373104378</v>
       </c>
       <c r="H12">
-        <v>0.6796750970517138</v>
+        <v>0.05927789393174976</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01227782865153237</v>
       </c>
       <c r="J12">
-        <v>0.05600102602676493</v>
+        <v>0.3479435273684146</v>
       </c>
       <c r="K12">
-        <v>1.763794215430579</v>
+        <v>0.1940565060446673</v>
       </c>
       <c r="L12">
-        <v>0.514708211217453</v>
+        <v>0.06780825288586456</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9547855317698151</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.293168098555228</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.246029525956487</v>
+        <v>4.135206535816224</v>
       </c>
       <c r="C13">
-        <v>0.09423024465901619</v>
+        <v>1.214170407562278</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.128564096858824</v>
+        <v>0.173371444075606</v>
       </c>
       <c r="F13">
-        <v>1.970080620566833</v>
+        <v>1.288400284238094</v>
       </c>
       <c r="G13">
-        <v>1.062247319966602</v>
+        <v>0.4479847084561328</v>
       </c>
       <c r="H13">
-        <v>0.6787725478538249</v>
+        <v>0.1144691557461357</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01166190786245913</v>
       </c>
       <c r="J13">
-        <v>0.05603959933725022</v>
+        <v>0.3028800221642598</v>
       </c>
       <c r="K13">
-        <v>1.753974641771265</v>
+        <v>0.1612287712048648</v>
       </c>
       <c r="L13">
-        <v>0.5121147255313048</v>
+        <v>0.09225465388151832</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9575611145425569</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.153715511206073</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.206381285790087</v>
+        <v>4.117854820120328</v>
       </c>
       <c r="C14">
-        <v>0.09350495788697089</v>
+        <v>1.191531577591434</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1269184043868776</v>
+        <v>0.1403361842071842</v>
       </c>
       <c r="F14">
-        <v>1.9482325461274</v>
+        <v>1.105355364312885</v>
       </c>
       <c r="G14">
-        <v>1.05286292607849</v>
+        <v>0.3852326465725326</v>
       </c>
       <c r="H14">
-        <v>0.6758665845415806</v>
+        <v>0.1633947441077908</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01081766826600905</v>
       </c>
       <c r="J14">
-        <v>0.0561656775139312</v>
+        <v>0.2720537523637603</v>
       </c>
       <c r="K14">
-        <v>1.721996597951431</v>
+        <v>0.1420063431556162</v>
       </c>
       <c r="L14">
-        <v>0.5036706084716371</v>
+        <v>0.1139584029251424</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9666623366059568</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.045078504158681</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.182142759084002</v>
+        <v>4.086330508638127</v>
       </c>
       <c r="C15">
-        <v>0.09306138203630354</v>
+        <v>1.179555528173239</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1259130776649613</v>
+        <v>0.1331864550263724</v>
       </c>
       <c r="F15">
-        <v>1.934924870791491</v>
+        <v>1.057847562999399</v>
       </c>
       <c r="G15">
-        <v>1.047168762670225</v>
+        <v>0.3677300649766266</v>
       </c>
       <c r="H15">
-        <v>0.6741150721222482</v>
+        <v>0.1757442680918473</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0104773185962328</v>
       </c>
       <c r="J15">
-        <v>0.05624312250076002</v>
+        <v>0.2639636280591304</v>
       </c>
       <c r="K15">
-        <v>1.702443599731367</v>
+        <v>0.1378762577650718</v>
       </c>
       <c r="L15">
-        <v>0.498508791539976</v>
+        <v>0.1195224765970195</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9722748056300148</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.013142064288949</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.043931850887191</v>
+        <v>3.827173043722837</v>
       </c>
       <c r="C16">
-        <v>0.09052905347275697</v>
+        <v>1.107699026544765</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1201921849050755</v>
+        <v>0.1298880881468687</v>
       </c>
       <c r="F16">
-        <v>1.859775044087925</v>
+        <v>1.027546765767966</v>
       </c>
       <c r="G16">
-        <v>1.015339422144436</v>
+        <v>0.354277295729915</v>
       </c>
       <c r="H16">
-        <v>0.6645021789247778</v>
+        <v>0.1623660947726933</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00848067373654704</v>
       </c>
       <c r="J16">
-        <v>0.05669034145103247</v>
+        <v>0.2627357894651681</v>
       </c>
       <c r="K16">
-        <v>1.590895263415007</v>
+        <v>0.1444868785115858</v>
       </c>
       <c r="L16">
-        <v>0.4690822583614533</v>
+        <v>0.1127938367473647</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.005004025893861</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.9545352965224652</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.959725447434721</v>
+        <v>3.638382341556337</v>
       </c>
       <c r="C17">
-        <v>0.08898325280340913</v>
+        <v>1.064931240609354</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1167171553608206</v>
+        <v>0.1433346605139079</v>
       </c>
       <c r="F17">
-        <v>1.814625458060775</v>
+        <v>1.098545086600126</v>
       </c>
       <c r="G17">
-        <v>0.9965001390497434</v>
+        <v>0.3765317552340832</v>
       </c>
       <c r="H17">
-        <v>0.6589708224631181</v>
+        <v>0.1243220108416381</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.007479518030527821</v>
       </c>
       <c r="J17">
-        <v>0.05696780998317585</v>
+        <v>0.2778661212454381</v>
       </c>
       <c r="K17">
-        <v>1.522884002693218</v>
+        <v>0.1593284759598284</v>
       </c>
       <c r="L17">
-        <v>0.4511604688552922</v>
+        <v>0.09530380070486899</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.025575613768616</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.9664273825255663</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.911492606923304</v>
+        <v>3.490533728203502</v>
       </c>
       <c r="C18">
-        <v>0.08809664014771812</v>
+        <v>1.039513956157947</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1147305902821962</v>
+        <v>0.1803228093867837</v>
       </c>
       <c r="F18">
-        <v>1.788991586838335</v>
+        <v>1.277581361888181</v>
       </c>
       <c r="G18">
-        <v>0.9859058629573667</v>
+        <v>0.437588243430568</v>
       </c>
       <c r="H18">
-        <v>0.6559188635430644</v>
+        <v>0.07147827835787268</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.006863354185799864</v>
       </c>
       <c r="J18">
-        <v>0.05712857358591528</v>
+        <v>0.3115156300688398</v>
       </c>
       <c r="K18">
-        <v>1.483909357877224</v>
+        <v>0.1864995325244188</v>
       </c>
       <c r="L18">
-        <v>0.4408976604198926</v>
+        <v>0.0712764054212407</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.037584446342009</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.040664373913401</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.89519500429401</v>
+        <v>3.385510223828248</v>
       </c>
       <c r="C19">
-        <v>0.0877968451668707</v>
+        <v>1.035542051941206</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1140600175809574</v>
+        <v>0.2465902818458297</v>
       </c>
       <c r="F19">
-        <v>1.780368546078293</v>
+        <v>1.542256623219529</v>
       </c>
       <c r="G19">
-        <v>0.9823593127247534</v>
+        <v>0.5239523037724041</v>
       </c>
       <c r="H19">
-        <v>0.6549073173099913</v>
+        <v>0.02649193927675952</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007058847456096196</v>
       </c>
       <c r="J19">
-        <v>0.05718320897172369</v>
+        <v>0.3565720938381958</v>
       </c>
       <c r="K19">
-        <v>1.470736894813911</v>
+        <v>0.2224713411346393</v>
       </c>
       <c r="L19">
-        <v>0.4374303953627532</v>
+        <v>0.05153296889028525</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.041680331358158</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.166696270052526</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.968668324172995</v>
+        <v>3.40625012295294</v>
       </c>
       <c r="C20">
-        <v>0.08914754067338038</v>
+        <v>1.081716892234851</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1170858061540194</v>
+        <v>0.389977671102379</v>
       </c>
       <c r="F20">
-        <v>1.81939670807165</v>
+        <v>2.049155993137489</v>
       </c>
       <c r="G20">
-        <v>0.9984803700653799</v>
+        <v>0.6899437209588797</v>
       </c>
       <c r="H20">
-        <v>0.6595461304355013</v>
+        <v>0.001773706544470066</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008737343360096794</v>
       </c>
       <c r="J20">
-        <v>0.0569381523753556</v>
+        <v>0.4379724940773144</v>
       </c>
       <c r="K20">
-        <v>1.530108815446596</v>
+        <v>0.2863547225863528</v>
       </c>
       <c r="L20">
-        <v>0.4530635248746648</v>
+        <v>0.04171427781915948</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.023367352634146</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.429733877921819</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.218017026311031</v>
+        <v>3.826100500389828</v>
       </c>
       <c r="C21">
-        <v>0.09371784773337311</v>
+        <v>1.216347540770869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.127401216841676</v>
+        <v>0.4427222266287245</v>
       </c>
       <c r="F21">
-        <v>1.95463415586272</v>
+        <v>2.283923907306388</v>
       </c>
       <c r="G21">
-        <v>1.055608020966531</v>
+        <v>0.7712269354094872</v>
       </c>
       <c r="H21">
-        <v>0.6767141729238944</v>
+        <v>0.004084260251698391</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01299287951384542</v>
       </c>
       <c r="J21">
-        <v>0.05612859992696428</v>
+        <v>0.4687973261175244</v>
       </c>
       <c r="K21">
-        <v>1.731382075131393</v>
+        <v>0.296565947327295</v>
       </c>
       <c r="L21">
-        <v>0.5061486572882643</v>
+        <v>0.04393272781505919</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9639812007206245</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.626052564010394</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.383055586391492</v>
+        <v>4.107717590076618</v>
       </c>
       <c r="C22">
-        <v>0.0967344572370834</v>
+        <v>1.301219071999867</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1342626973362577</v>
+        <v>0.4689649618953169</v>
       </c>
       <c r="F22">
-        <v>2.046330960577677</v>
+        <v>2.420572761193853</v>
       </c>
       <c r="G22">
-        <v>1.095333570959369</v>
+        <v>0.8236580825380884</v>
       </c>
       <c r="H22">
-        <v>0.6891954661986119</v>
+        <v>0.006079838174473884</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01597556261574518</v>
       </c>
       <c r="J22">
-        <v>0.05560936090495794</v>
+        <v>0.4886536902857728</v>
       </c>
       <c r="K22">
-        <v>1.864439547286935</v>
+        <v>0.3034217807857118</v>
       </c>
       <c r="L22">
-        <v>0.541303397414552</v>
+        <v>0.04536742507448999</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.926843831644355</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.741936805281185</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.29476683165575</v>
+        <v>3.95869582331153</v>
       </c>
       <c r="C23">
-        <v>0.09512133900094</v>
+        <v>1.252343048282</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1305890655864417</v>
+        <v>0.4539221034943139</v>
       </c>
       <c r="F23">
-        <v>1.997070992030459</v>
+        <v>2.352125976923304</v>
       </c>
       <c r="G23">
-        <v>1.07390056751278</v>
+        <v>0.8006970342382971</v>
       </c>
       <c r="H23">
-        <v>0.6824131153589974</v>
+        <v>0.004973346420493518</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01409362528026836</v>
       </c>
       <c r="J23">
-        <v>0.05588561629080502</v>
+        <v>0.4806237639520532</v>
       </c>
       <c r="K23">
-        <v>1.793273817929759</v>
+        <v>0.3024582900898309</v>
       </c>
       <c r="L23">
-        <v>0.522495626989766</v>
+        <v>0.04464972376264864</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9465062844148591</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.677665646146494</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.964624696600367</v>
+        <v>3.393639515270593</v>
       </c>
       <c r="C24">
-        <v>0.08907325970131552</v>
+        <v>1.07468178848697</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1169191041311883</v>
+        <v>0.3989887285374678</v>
       </c>
       <c r="F24">
-        <v>1.817238622701495</v>
+        <v>2.088751286081546</v>
       </c>
       <c r="G24">
-        <v>0.9975843729863101</v>
+        <v>0.7083199009521479</v>
       </c>
       <c r="H24">
-        <v>0.6592856358823553</v>
+        <v>0.001743378292357933</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.008316813974889925</v>
       </c>
       <c r="J24">
-        <v>0.0569515567011738</v>
+        <v>0.447502228210567</v>
       </c>
       <c r="K24">
-        <v>1.526842087868317</v>
+        <v>0.2956846829647617</v>
       </c>
       <c r="L24">
-        <v>0.4522030271927946</v>
+        <v>0.04181094264012675</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.024365141853167</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.439334894767384</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.616034084195803</v>
+        <v>2.786411438003199</v>
       </c>
       <c r="C25">
-        <v>0.08264117609236621</v>
+        <v>0.8859188312772801</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1026338352573113</v>
+        <v>0.3403215600750755</v>
       </c>
       <c r="F25">
-        <v>1.635905171296997</v>
+        <v>1.810997771604164</v>
       </c>
       <c r="G25">
-        <v>0.9243846956194091</v>
+        <v>0.6142848787728354</v>
       </c>
       <c r="H25">
-        <v>0.6392386512445825</v>
+        <v>9.178479190463662E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003904240418689753</v>
       </c>
       <c r="J25">
-        <v>0.05814641546610666</v>
+        <v>0.4148250334590244</v>
       </c>
       <c r="K25">
-        <v>1.24482862542348</v>
+        <v>0.2910366168706986</v>
       </c>
       <c r="L25">
-        <v>0.3780858877865541</v>
+        <v>0.03864849116470737</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.115050735369806</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>1.184259493494395</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.34332942889472</v>
+        <v>2.328556551292024</v>
       </c>
       <c r="C2">
-        <v>0.740454856712546</v>
+        <v>0.7834780813078908</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2950154110805272</v>
+        <v>0.3108301417609312</v>
       </c>
       <c r="F2">
-        <v>1.622051300773379</v>
+        <v>1.551793196344647</v>
       </c>
       <c r="G2">
-        <v>0.561445027523817</v>
+        <v>0.4647680798528597</v>
       </c>
       <c r="H2">
-        <v>0.0002274614119694984</v>
+        <v>0.0002283883572662404</v>
       </c>
       <c r="I2">
-        <v>0.001340764062476296</v>
+        <v>0.001583810287531406</v>
       </c>
       <c r="J2">
-        <v>0.3994187588275082</v>
+        <v>0.4013851532980937</v>
       </c>
       <c r="K2">
-        <v>0.2963701505498655</v>
+        <v>0.2512631548073472</v>
       </c>
       <c r="L2">
-        <v>0.03633457607020096</v>
+        <v>0.1440304937938883</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05688541276005665</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03573235136665609</v>
       </c>
       <c r="O2">
-        <v>0.9920099831506306</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.028162208967977</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.041209159215725</v>
+        <v>2.032312570039267</v>
       </c>
       <c r="C3">
-        <v>0.6474795204436816</v>
+        <v>0.6799373350576161</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2658399179764075</v>
+        <v>0.279699099115625</v>
       </c>
       <c r="F3">
-        <v>1.489661118117311</v>
+        <v>1.432519499966503</v>
       </c>
       <c r="G3">
-        <v>0.5203547903741139</v>
+        <v>0.4369355674648432</v>
       </c>
       <c r="H3">
-        <v>0.001059936363112302</v>
+        <v>0.001013917141567733</v>
       </c>
       <c r="I3">
-        <v>0.0005895172008334448</v>
+        <v>0.000826440003420803</v>
       </c>
       <c r="J3">
-        <v>0.3864163482161302</v>
+        <v>0.3914777938636291</v>
       </c>
       <c r="K3">
-        <v>0.2970937602661472</v>
+        <v>0.2570459889954719</v>
       </c>
       <c r="L3">
-        <v>0.03463655584755632</v>
+        <v>0.1499737928360787</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05602180051297267</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03392609315521877</v>
       </c>
       <c r="O3">
-        <v>0.8654793452225675</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8945946666722122</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.855517163841427</v>
+        <v>1.850008333656689</v>
       </c>
       <c r="C4">
-        <v>0.590838247607536</v>
+        <v>0.6169454024508241</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2480022787078582</v>
+        <v>0.2606975138846934</v>
       </c>
       <c r="F4">
-        <v>1.409079307680997</v>
+        <v>1.359801873982903</v>
       </c>
       <c r="G4">
-        <v>0.4957390279939489</v>
+        <v>0.4203708061092328</v>
       </c>
       <c r="H4">
-        <v>0.001905338412547808</v>
+        <v>0.001803558132319028</v>
       </c>
       <c r="I4">
-        <v>0.0004317310979669031</v>
+        <v>0.0005927429684127183</v>
       </c>
       <c r="J4">
-        <v>0.3788313175985536</v>
+        <v>0.3854314490583306</v>
       </c>
       <c r="K4">
-        <v>0.2978750757884718</v>
+        <v>0.2608147927397972</v>
       </c>
       <c r="L4">
-        <v>0.03355818973674696</v>
+        <v>0.1537099159124082</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05609017096002056</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03278794133212148</v>
       </c>
       <c r="O4">
-        <v>0.7880584636703674</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.8129038678894958</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.779457052244339</v>
+        <v>1.7753083677718</v>
       </c>
       <c r="C5">
-        <v>0.5686973308949348</v>
+        <v>0.5922014875516766</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2409991502447539</v>
+        <v>0.253211716018356</v>
       </c>
       <c r="F5">
-        <v>1.375227887065364</v>
+        <v>1.329245285741649</v>
       </c>
       <c r="G5">
-        <v>0.4845393588703644</v>
+        <v>0.4126429098333801</v>
       </c>
       <c r="H5">
-        <v>0.002330531663718327</v>
+        <v>0.002199549686355273</v>
       </c>
       <c r="I5">
-        <v>0.0005037136948145005</v>
+        <v>0.0006290834695859004</v>
       </c>
       <c r="J5">
-        <v>0.3751550225411364</v>
+        <v>0.3823826299457096</v>
       </c>
       <c r="K5">
-        <v>0.2975501365062883</v>
+        <v>0.2618255750477658</v>
       </c>
       <c r="L5">
-        <v>0.03309739441627668</v>
+        <v>0.1549636181132534</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0561214830529746</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03231263941233209</v>
       </c>
       <c r="O5">
-        <v>0.7571429191302599</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7802136383360647</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.766426688111579</v>
+        <v>1.762537257676655</v>
       </c>
       <c r="C6">
-        <v>0.5660597768103344</v>
+        <v>0.5890725800725534</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2401442657165234</v>
+        <v>0.2522552598379448</v>
       </c>
       <c r="F6">
-        <v>1.368183161930148</v>
+        <v>1.322910888230496</v>
       </c>
       <c r="G6">
-        <v>0.4810917305750451</v>
+        <v>0.4100311369281968</v>
       </c>
       <c r="H6">
-        <v>0.002407200523721231</v>
+        <v>0.002270803873091087</v>
       </c>
       <c r="I6">
-        <v>0.0006068654436868215</v>
+        <v>0.000741648024284558</v>
       </c>
       <c r="J6">
-        <v>0.3737215621515588</v>
+        <v>0.3811547865048652</v>
       </c>
       <c r="K6">
-        <v>0.2966204885222474</v>
+        <v>0.2612956130556086</v>
       </c>
       <c r="L6">
-        <v>0.03300579730703879</v>
+        <v>0.1548202949832991</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0559597207901632</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03222871438464026</v>
       </c>
       <c r="O6">
-        <v>0.752719452128467</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7754370319774466</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.853404798080106</v>
+        <v>1.847690499296903</v>
       </c>
       <c r="C7">
-        <v>0.5933690468743293</v>
+        <v>0.6181309264667334</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2487474638248486</v>
+        <v>0.2619566221028933</v>
       </c>
       <c r="F7">
-        <v>1.404707489624926</v>
+        <v>1.354005653733367</v>
       </c>
       <c r="G7">
-        <v>0.491222925386694</v>
+        <v>0.4187796896331264</v>
       </c>
       <c r="H7">
-        <v>0.001914018152465724</v>
+        <v>0.001813914489472879</v>
       </c>
       <c r="I7">
-        <v>0.0006535850714115554</v>
+        <v>0.0008555942681525153</v>
       </c>
       <c r="J7">
-        <v>0.3765185575623917</v>
+        <v>0.37763381235753</v>
       </c>
       <c r="K7">
-        <v>0.2954659968927871</v>
+        <v>0.2580775931421861</v>
       </c>
       <c r="L7">
-        <v>0.03351210179521091</v>
+        <v>0.1523736256085293</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05536700064592104</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03276757511302542</v>
       </c>
       <c r="O7">
-        <v>0.7895759206540589</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8147694231571876</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.237727413556684</v>
+        <v>2.224078058767304</v>
       </c>
       <c r="C8">
-        <v>0.7120776062414507</v>
+        <v>0.747362736076326</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2860539419863599</v>
+        <v>0.3030651397829303</v>
       </c>
       <c r="F8">
-        <v>1.571059118424955</v>
+        <v>1.499602468939202</v>
       </c>
       <c r="G8">
-        <v>0.5413536009855022</v>
+        <v>0.4574930771282766</v>
       </c>
       <c r="H8">
-        <v>0.0004443201188868429</v>
+        <v>0.0004384540806419146</v>
       </c>
       <c r="I8">
-        <v>0.001273393764542163</v>
+        <v>0.001574883230390789</v>
       </c>
       <c r="J8">
-        <v>0.3918598744742212</v>
+        <v>0.3765209256372657</v>
       </c>
       <c r="K8">
-        <v>0.2933788534198527</v>
+        <v>0.2480219715730385</v>
       </c>
       <c r="L8">
-        <v>0.03570372110248332</v>
+        <v>0.143720550642815</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05488403089239924</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.03510605483626872</v>
       </c>
       <c r="O8">
-        <v>0.9508986486011821</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9861882918098246</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.992780719508744</v>
+        <v>2.962541351059485</v>
       </c>
       <c r="C9">
-        <v>0.9439656978517235</v>
+        <v>1.005368081411547</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3584924977763038</v>
+        <v>0.3812169849754881</v>
       </c>
       <c r="F9">
-        <v>1.910859404419355</v>
+        <v>1.803230251200432</v>
       </c>
       <c r="G9">
-        <v>0.6531455398777268</v>
+        <v>0.5369357339559429</v>
       </c>
       <c r="H9">
-        <v>0.0004258012860409721</v>
+        <v>0.0003587243785183603</v>
       </c>
       <c r="I9">
-        <v>0.004826458607597672</v>
+        <v>0.004613790465759493</v>
       </c>
       <c r="J9">
-        <v>0.4294963878198814</v>
+        <v>0.398730261297132</v>
       </c>
       <c r="K9">
-        <v>0.296522020867414</v>
+        <v>0.2365999010076969</v>
       </c>
       <c r="L9">
-        <v>0.03979811325788463</v>
+        <v>0.1304346235438487</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0606710694586603</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.03948444210108182</v>
       </c>
       <c r="O9">
-        <v>1.266422515372341</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.320208709784652</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.557944227067935</v>
+        <v>3.512520218757516</v>
       </c>
       <c r="C10">
-        <v>1.118780775985613</v>
+        <v>1.191281015717834</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3985200216294587</v>
+        <v>0.4278656025517691</v>
       </c>
       <c r="F10">
-        <v>2.11797385549815</v>
+        <v>1.97540769367059</v>
       </c>
       <c r="G10">
-        <v>0.7227153013923697</v>
+        <v>0.5991647622963399</v>
       </c>
       <c r="H10">
-        <v>0.002485683852264664</v>
+        <v>0.002196396232281739</v>
       </c>
       <c r="I10">
-        <v>0.00945848135390559</v>
+        <v>0.008371959537652351</v>
       </c>
       <c r="J10">
-        <v>0.4511031610424254</v>
+        <v>0.3778682230887682</v>
       </c>
       <c r="K10">
-        <v>0.2931641962453533</v>
+        <v>0.2200726759715295</v>
       </c>
       <c r="L10">
-        <v>0.04251821306688441</v>
+        <v>0.1177651966829014</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0642258659298065</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.04306582954397697</v>
       </c>
       <c r="O10">
-        <v>1.480899261776358</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.550029573504034</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.902749557106631</v>
+        <v>3.851574645502808</v>
       </c>
       <c r="C11">
-        <v>1.198819488360073</v>
+        <v>1.249921399125469</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3051545259458379</v>
+        <v>0.3317218913403153</v>
       </c>
       <c r="F11">
-        <v>1.822936684598773</v>
+        <v>1.679795394024069</v>
       </c>
       <c r="G11">
-        <v>0.623277989060341</v>
+        <v>0.5469911628762247</v>
       </c>
       <c r="H11">
-        <v>0.02096009496198548</v>
+        <v>0.0206230077750007</v>
       </c>
       <c r="I11">
-        <v>0.0117585934465172</v>
+        <v>0.01029109060899902</v>
       </c>
       <c r="J11">
-        <v>0.3944603914469411</v>
+        <v>0.2793572055689566</v>
       </c>
       <c r="K11">
-        <v>0.2345288784110551</v>
+        <v>0.1702282172875016</v>
       </c>
       <c r="L11">
-        <v>0.05075193737630457</v>
+        <v>0.09800784603758927</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04826484571633571</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05722140624095928</v>
       </c>
       <c r="O11">
-        <v>1.404037142661878</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.472202894206404</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.080136640959211</v>
+        <v>4.02857102581919</v>
       </c>
       <c r="C12">
-        <v>1.224550610878509</v>
+        <v>1.259360435230349</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2326489308537596</v>
+        <v>0.2529505696689753</v>
       </c>
       <c r="F12">
-        <v>1.555315932765708</v>
+        <v>1.42537871350271</v>
       </c>
       <c r="G12">
-        <v>0.5366768373104378</v>
+        <v>0.4893351550705631</v>
       </c>
       <c r="H12">
-        <v>0.05927789393174976</v>
+        <v>0.05895655881578676</v>
       </c>
       <c r="I12">
-        <v>0.01227782865153237</v>
+        <v>0.01065053706358299</v>
       </c>
       <c r="J12">
-        <v>0.3479435273684146</v>
+        <v>0.2293891768410177</v>
       </c>
       <c r="K12">
-        <v>0.1940565060446673</v>
+        <v>0.141290333973533</v>
       </c>
       <c r="L12">
-        <v>0.06780825288586456</v>
+        <v>0.0877781534409845</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03738370211958042</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07893233120264398</v>
       </c>
       <c r="O12">
-        <v>1.293168098555228</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.355643729770193</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.135206535816224</v>
+        <v>4.088699723724744</v>
       </c>
       <c r="C13">
-        <v>1.214170407562278</v>
+        <v>1.238829273763429</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.173371444075606</v>
+        <v>0.184947540020147</v>
       </c>
       <c r="F13">
-        <v>1.288400284238094</v>
+        <v>1.185100078091793</v>
       </c>
       <c r="G13">
-        <v>0.4479847084561328</v>
+        <v>0.4145126630953939</v>
       </c>
       <c r="H13">
-        <v>0.1144691557461357</v>
+        <v>0.1142136279960653</v>
       </c>
       <c r="I13">
-        <v>0.01166190786245913</v>
+        <v>0.01016791123405536</v>
       </c>
       <c r="J13">
-        <v>0.3028800221642598</v>
+        <v>0.2098558222798701</v>
       </c>
       <c r="K13">
-        <v>0.1612287712048648</v>
+        <v>0.1232970718232771</v>
       </c>
       <c r="L13">
-        <v>0.09225465388151832</v>
+        <v>0.08222545487934152</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02907625282545645</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.105989452144712</v>
       </c>
       <c r="O13">
-        <v>1.153715511206073</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.20541829199523</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.117854820120328</v>
+        <v>4.077367751908525</v>
       </c>
       <c r="C14">
-        <v>1.191531577591434</v>
+        <v>1.211677705733962</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1403361842071842</v>
+        <v>0.1458546105003968</v>
       </c>
       <c r="F14">
-        <v>1.105355364312885</v>
+        <v>1.024811746372393</v>
       </c>
       <c r="G14">
-        <v>0.3852326465725326</v>
+        <v>0.3558697502015491</v>
       </c>
       <c r="H14">
-        <v>0.1633947441077908</v>
+        <v>0.1631987221634716</v>
       </c>
       <c r="I14">
-        <v>0.01081766826600905</v>
+        <v>0.009554612617806768</v>
       </c>
       <c r="J14">
-        <v>0.2720537523637603</v>
+        <v>0.2064000034995104</v>
       </c>
       <c r="K14">
-        <v>0.1420063431556162</v>
+        <v>0.1149057802377627</v>
       </c>
       <c r="L14">
-        <v>0.1139584029251424</v>
+        <v>0.07995831946893706</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02437124418012537</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1279968048451607</v>
       </c>
       <c r="O14">
-        <v>1.045078504158681</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.087341941836328</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.086330508638127</v>
+        <v>4.048423853339386</v>
       </c>
       <c r="C15">
-        <v>1.179555528173239</v>
+        <v>1.199629114140976</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1331864550263724</v>
+        <v>0.1371601650996368</v>
       </c>
       <c r="F15">
-        <v>1.057847562999399</v>
+        <v>0.9849778583723889</v>
       </c>
       <c r="G15">
-        <v>0.3677300649766266</v>
+        <v>0.3375625016376915</v>
       </c>
       <c r="H15">
-        <v>0.1757442680918473</v>
+        <v>0.1755722998918543</v>
       </c>
       <c r="I15">
-        <v>0.0104773185962328</v>
+        <v>0.0093508792230379</v>
       </c>
       <c r="J15">
-        <v>0.2639636280591304</v>
+        <v>0.2094161645474912</v>
       </c>
       <c r="K15">
-        <v>0.1378762577650718</v>
+        <v>0.1139535246530397</v>
       </c>
       <c r="L15">
-        <v>0.1195224765970195</v>
+        <v>0.07985084518096475</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02339992770590982</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1330775745488424</v>
       </c>
       <c r="O15">
-        <v>1.013142064288949</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.052170498193988</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827173043722837</v>
+        <v>3.79846887658681</v>
       </c>
       <c r="C16">
-        <v>1.107699026544765</v>
+        <v>1.136461879016679</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1298880881468687</v>
+        <v>0.1320876534731514</v>
       </c>
       <c r="F16">
-        <v>1.027546765767966</v>
+        <v>0.9738863442693599</v>
       </c>
       <c r="G16">
-        <v>0.354277295729915</v>
+        <v>0.3090413072974769</v>
       </c>
       <c r="H16">
-        <v>0.1623660947726933</v>
+        <v>0.1622866027698251</v>
       </c>
       <c r="I16">
-        <v>0.00848067373654704</v>
+        <v>0.007883430314040929</v>
       </c>
       <c r="J16">
-        <v>0.2627357894651681</v>
+        <v>0.2484509015574901</v>
       </c>
       <c r="K16">
-        <v>0.1444868785115858</v>
+        <v>0.1254278783584653</v>
       </c>
       <c r="L16">
-        <v>0.1127938367473647</v>
+        <v>0.08469993409448939</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02538015553135509</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1225837230774545</v>
       </c>
       <c r="O16">
-        <v>0.9545352965224652</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.9855193050059867</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.638382341556337</v>
+        <v>3.612803070469909</v>
       </c>
       <c r="C17">
-        <v>1.064931240609354</v>
+        <v>1.10071447819081</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1433346605139079</v>
+        <v>0.1465695218763692</v>
       </c>
       <c r="F17">
-        <v>1.098545086600126</v>
+        <v>1.047376895457049</v>
       </c>
       <c r="G17">
-        <v>0.3765317552340832</v>
+        <v>0.3194614399008771</v>
       </c>
       <c r="H17">
-        <v>0.1243220108416381</v>
+        <v>0.1242767182121725</v>
       </c>
       <c r="I17">
-        <v>0.007479518030527821</v>
+        <v>0.00713588362148343</v>
       </c>
       <c r="J17">
-        <v>0.2778661212454381</v>
+        <v>0.2790853708523997</v>
       </c>
       <c r="K17">
-        <v>0.1593284759598284</v>
+        <v>0.1388874718666635</v>
       </c>
       <c r="L17">
-        <v>0.09530380070486899</v>
+        <v>0.09014509702533857</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02912463409624344</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1031005238639366</v>
       </c>
       <c r="O17">
-        <v>0.9664273825255663</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.99663079330778</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.490533728203502</v>
+        <v>3.46414880740673</v>
       </c>
       <c r="C18">
-        <v>1.039513956157947</v>
+        <v>1.084557861945228</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1803228093867837</v>
+        <v>0.1868457110500792</v>
       </c>
       <c r="F18">
-        <v>1.277581361888181</v>
+        <v>1.216973819460648</v>
       </c>
       <c r="G18">
-        <v>0.437588243430568</v>
+        <v>0.3642790728494987</v>
       </c>
       <c r="H18">
-        <v>0.07147827835787268</v>
+        <v>0.07143509770692447</v>
       </c>
       <c r="I18">
-        <v>0.006863354185799864</v>
+        <v>0.006567096819756202</v>
       </c>
       <c r="J18">
-        <v>0.3115156300688398</v>
+        <v>0.3141791401227039</v>
       </c>
       <c r="K18">
-        <v>0.1864995325244188</v>
+        <v>0.1590118341391538</v>
       </c>
       <c r="L18">
-        <v>0.0712764054212407</v>
+        <v>0.09800905584648767</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03597682337379382</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07756310603641481</v>
       </c>
       <c r="O18">
-        <v>1.040664373913401</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.075460448634658</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.385510223828248</v>
+        <v>3.355911063997269</v>
       </c>
       <c r="C19">
-        <v>1.035542051941206</v>
+        <v>1.091646203087407</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2465902818458297</v>
+        <v>0.2586260220669558</v>
       </c>
       <c r="F19">
-        <v>1.542256623219529</v>
+        <v>1.463422304298291</v>
       </c>
       <c r="G19">
-        <v>0.5239523037724041</v>
+        <v>0.4301297286112629</v>
       </c>
       <c r="H19">
-        <v>0.02649193927675952</v>
+        <v>0.02642205116680429</v>
       </c>
       <c r="I19">
-        <v>0.007058847456096196</v>
+        <v>0.006771771048409647</v>
       </c>
       <c r="J19">
-        <v>0.3565720938381958</v>
+        <v>0.3519216277000652</v>
       </c>
       <c r="K19">
-        <v>0.2224713411346393</v>
+        <v>0.1836221693689737</v>
       </c>
       <c r="L19">
-        <v>0.05153296889028525</v>
+        <v>0.1073629581629696</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0451005429579947</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05591374901364787</v>
       </c>
       <c r="O19">
-        <v>1.166696270052526</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.209838692861794</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.40625012295294</v>
+        <v>3.366566434898516</v>
       </c>
       <c r="C20">
-        <v>1.081716892234851</v>
+        <v>1.15508238806666</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.389977671102379</v>
+        <v>0.4152471828621245</v>
       </c>
       <c r="F20">
-        <v>2.049155993137489</v>
+        <v>1.924405715020626</v>
       </c>
       <c r="G20">
-        <v>0.6899437209588797</v>
+        <v>0.562995871980732</v>
       </c>
       <c r="H20">
-        <v>0.001773706544470066</v>
+        <v>0.001565239669464979</v>
       </c>
       <c r="I20">
-        <v>0.008737343360096794</v>
+        <v>0.008118724204901007</v>
       </c>
       <c r="J20">
-        <v>0.4379724940773144</v>
+        <v>0.3966304655289434</v>
       </c>
       <c r="K20">
-        <v>0.2863547225863528</v>
+        <v>0.2215561840109679</v>
       </c>
       <c r="L20">
-        <v>0.04171427781915948</v>
+        <v>0.1200016553558818</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06205580195934957</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.04212945787146793</v>
       </c>
       <c r="O20">
-        <v>1.429733877921819</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.492316570538804</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.826100500389828</v>
+        <v>3.766688460655587</v>
       </c>
       <c r="C21">
-        <v>1.216347540770869</v>
+        <v>1.277775854793788</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4427222266287245</v>
+        <v>0.4869786473650066</v>
       </c>
       <c r="F21">
-        <v>2.283923907306388</v>
+        <v>2.089404945930852</v>
       </c>
       <c r="G21">
-        <v>0.7712269354094872</v>
+        <v>0.6761680702018253</v>
       </c>
       <c r="H21">
-        <v>0.004084260251698391</v>
+        <v>0.003567717081327193</v>
       </c>
       <c r="I21">
-        <v>0.01299287951384542</v>
+        <v>0.01129497793963985</v>
       </c>
       <c r="J21">
-        <v>0.4687973261175244</v>
+        <v>0.300013802315064</v>
       </c>
       <c r="K21">
-        <v>0.296565947327295</v>
+        <v>0.2036151142665084</v>
       </c>
       <c r="L21">
-        <v>0.04393272781505919</v>
+        <v>0.1088925648369408</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06300985715522955</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.04437739030711541</v>
       </c>
       <c r="O21">
-        <v>1.626052564010394</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.713444039979692</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.107717590076618</v>
+        <v>4.034475308151571</v>
       </c>
       <c r="C22">
-        <v>1.301219071999867</v>
+        <v>1.352151812127374</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4689649618953169</v>
+        <v>0.5265649418698004</v>
       </c>
       <c r="F22">
-        <v>2.420572761193853</v>
+        <v>2.177895958710479</v>
       </c>
       <c r="G22">
-        <v>0.8236580825380884</v>
+        <v>0.756179269402395</v>
       </c>
       <c r="H22">
-        <v>0.006079838174473884</v>
+        <v>0.005302204057156645</v>
       </c>
       <c r="I22">
-        <v>0.01597556261574518</v>
+        <v>0.01334594000480127</v>
       </c>
       <c r="J22">
-        <v>0.4886536902857728</v>
+        <v>0.2418825092098658</v>
       </c>
       <c r="K22">
-        <v>0.3034217807857118</v>
+        <v>0.1914266166319543</v>
       </c>
       <c r="L22">
-        <v>0.04536742507448999</v>
+        <v>0.1018216817424396</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06356514299180205</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.04612572120739067</v>
       </c>
       <c r="O22">
-        <v>1.741936805281185</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.846107471154099</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.95869582331153</v>
+        <v>3.893641946028026</v>
       </c>
       <c r="C23">
-        <v>1.252343048282</v>
+        <v>1.312337250898906</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4539221034943139</v>
+        <v>0.5026690412646388</v>
       </c>
       <c r="F23">
-        <v>2.352125976923304</v>
+        <v>2.139668466262052</v>
       </c>
       <c r="G23">
-        <v>0.8006970342382971</v>
+        <v>0.7111398130749649</v>
       </c>
       <c r="H23">
-        <v>0.004973346420493518</v>
+        <v>0.004346413933064341</v>
       </c>
       <c r="I23">
-        <v>0.01409362528026836</v>
+        <v>0.01192834658659425</v>
       </c>
       <c r="J23">
-        <v>0.4806237639520532</v>
+        <v>0.2838894388813458</v>
       </c>
       <c r="K23">
-        <v>0.3024582900898309</v>
+        <v>0.2015495130523739</v>
       </c>
       <c r="L23">
-        <v>0.04464972376264864</v>
+        <v>0.1067441828428422</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06481390573636503</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.04512232812471773</v>
       </c>
       <c r="O23">
-        <v>1.677665646146494</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.771537160912075</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.393639515270593</v>
+        <v>3.353549729568329</v>
       </c>
       <c r="C24">
-        <v>1.07468178848697</v>
+        <v>1.14952190814347</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3989887285374678</v>
+        <v>0.4250846295639548</v>
       </c>
       <c r="F24">
-        <v>2.088751286081546</v>
+        <v>1.960988740837251</v>
       </c>
       <c r="G24">
-        <v>0.7083199009521479</v>
+        <v>0.5770611891736905</v>
       </c>
       <c r="H24">
-        <v>0.001743378292357933</v>
+        <v>0.001528547363783384</v>
       </c>
       <c r="I24">
-        <v>0.008316813974889925</v>
+        <v>0.007594651013263842</v>
       </c>
       <c r="J24">
-        <v>0.447502228210567</v>
+        <v>0.4050726246952507</v>
       </c>
       <c r="K24">
-        <v>0.2956846829647617</v>
+        <v>0.2282369397807145</v>
       </c>
       <c r="L24">
-        <v>0.04181094264012675</v>
+        <v>0.1225023417720408</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06456545903117217</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04174442534884371</v>
       </c>
       <c r="O24">
-        <v>1.439334894767384</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.503088712629008</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.786411438003199</v>
+        <v>2.76159507211355</v>
       </c>
       <c r="C25">
-        <v>0.8859188312772801</v>
+        <v>0.9415629966994459</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3403215600750755</v>
+        <v>0.3605306991626307</v>
       </c>
       <c r="F25">
-        <v>1.810997771604164</v>
+        <v>1.716978917286326</v>
       </c>
       <c r="G25">
-        <v>0.6142848787728354</v>
+        <v>0.5052041450452123</v>
       </c>
       <c r="H25">
-        <v>9.178479190463662E-05</v>
+        <v>7.090714708368751E-05</v>
       </c>
       <c r="I25">
-        <v>0.003904240418689753</v>
+        <v>0.004004596735689425</v>
       </c>
       <c r="J25">
-        <v>0.4148250334590244</v>
+        <v>0.3972887701733043</v>
       </c>
       <c r="K25">
-        <v>0.2910366168706986</v>
+        <v>0.2373967378138531</v>
       </c>
       <c r="L25">
-        <v>0.03864849116470737</v>
+        <v>0.1331274758704275</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05782948554945477</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.03831851102530148</v>
       </c>
       <c r="O25">
-        <v>1.184259493494395</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.231949879529395</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
